--- a/Results/0 Compiled Results for Manuscript.xlsx
+++ b/Results/0 Compiled Results for Manuscript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1725" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C5AD9EB-218E-43C4-8DED-D33915F6BC2E}"/>
+  <xr:revisionPtr revIDLastSave="1726" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC3A9A2-074C-4001-8B47-D880571ACBC7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAV" sheetId="1" r:id="rId1"/>
@@ -980,11 +980,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,8 +998,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,9 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,26 +1040,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8540,10 +8540,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9603,7 +9599,7 @@
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="67"/>
@@ -9730,62 +9726,62 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="68" t="s">
+      <c r="Y2" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="66" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66" t="s">
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66" t="s">
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66" t="s">
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66" t="s">
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
     </row>
     <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9806,7 +9802,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="68" t="s">
         <v>91</v>
       </c>
       <c r="H3" s="67"/>
@@ -12235,22 +12231,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AU1:AZ1"/>
@@ -12261,6 +12241,22 @@
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -12306,7 +12302,7 @@
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="67"/>
@@ -12433,62 +12429,62 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="41"/>
-      <c r="X2" s="66" t="s">
+      <c r="X2" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66" t="s">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66" t="s">
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66" t="s">
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66" t="s">
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66" t="s">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66" t="s">
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
     </row>
     <row r="3" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -12509,7 +12505,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="68" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="67"/>
@@ -12703,36 +12699,36 @@
       <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="87"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
     </row>
     <row r="5" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -12814,123 +12810,123 @@
         <v>0.04</v>
       </c>
       <c r="AB5" s="44">
-        <f>G12-G4</f>
+        <f t="shared" ref="AB5:AD8" si="0">G12-G4</f>
         <v>0</v>
       </c>
       <c r="AC5" s="44">
-        <f>H12-H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD5" s="44">
-        <f>I12-I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5" s="44">
-        <f>G16-G8</f>
+        <f t="shared" ref="AE5:AG8" si="1">G16-G8</f>
         <v>0</v>
       </c>
       <c r="AF5" s="44">
-        <f>H16-H8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG5" s="44">
-        <f>I16-I8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH5" s="44">
-        <f>J12-J4</f>
+        <f t="shared" ref="AH5:AJ8" si="2">J12-J4</f>
         <v>-3296</v>
       </c>
       <c r="AI5" s="44">
-        <f>K12-K4</f>
+        <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
       <c r="AJ5" s="44">
-        <f>L12-L4</f>
+        <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
       <c r="AK5" s="44">
-        <f>J16-J8</f>
+        <f t="shared" ref="AK5:AM8" si="3">J16-J8</f>
         <v>-3586</v>
       </c>
       <c r="AL5" s="44">
-        <f>K16-K8</f>
+        <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
       <c r="AM5" s="44">
-        <f>L16-L8</f>
+        <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
       <c r="AN5" s="44">
-        <f>M12-M4</f>
+        <f t="shared" ref="AN5:AP8" si="4">M12-M4</f>
         <v>-7691</v>
       </c>
       <c r="AO5" s="44">
-        <f>N12-N4</f>
+        <f t="shared" si="4"/>
         <v>-8929</v>
       </c>
       <c r="AP5" s="44">
-        <f>O12-O4</f>
+        <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
       <c r="AQ5" s="44">
-        <f>M16-M8</f>
+        <f t="shared" ref="AQ5:AS8" si="5">M16-M8</f>
         <v>-8367</v>
       </c>
       <c r="AR5" s="44">
-        <f>N16-N8</f>
+        <f t="shared" si="5"/>
         <v>-9275</v>
       </c>
       <c r="AS5" s="44">
-        <f>O16-O8</f>
+        <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
       <c r="AT5" s="44">
-        <f>P12-P4</f>
+        <f t="shared" ref="AT5:AV8" si="6">P12-P4</f>
         <v>-12086</v>
       </c>
       <c r="AU5" s="44">
-        <f>Q12-Q4</f>
+        <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
       <c r="AV5" s="44">
-        <f>R12-R4</f>
+        <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
       <c r="AW5" s="44">
-        <f>P16-P8</f>
+        <f t="shared" ref="AW5:AY8" si="7">P16-P8</f>
         <v>-13148</v>
       </c>
       <c r="AX5" s="44">
-        <f>Q16-Q8</f>
+        <f t="shared" si="7"/>
         <v>-14576</v>
       </c>
       <c r="AY5" s="44">
-        <f>R16-R8</f>
+        <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
       <c r="AZ5" s="44">
-        <f>S12-S4</f>
+        <f t="shared" ref="AZ5:BB8" si="8">S12-S4</f>
         <v>-16480</v>
       </c>
       <c r="BA5" s="44">
-        <f>T12-T4</f>
+        <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
       <c r="BB5" s="44">
-        <f>U12-U4</f>
+        <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
       <c r="BC5" s="44">
-        <f>S16-S8</f>
+        <f t="shared" ref="BC5:BE8" si="9">S16-S8</f>
         <v>-17928</v>
       </c>
       <c r="BD5" s="44">
-        <f>T16-T8</f>
+        <f t="shared" si="9"/>
         <v>-19876</v>
       </c>
       <c r="BE5" s="44">
-        <f>U16-U8</f>
+        <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
     </row>
@@ -13014,123 +13010,123 @@
         <v>0.04</v>
       </c>
       <c r="AB6" s="44">
-        <f>G13-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6" s="44">
-        <f>H13-H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD6" s="44">
-        <f>I13-I5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6" s="44">
-        <f>G17-G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF6" s="44">
-        <f>H17-H9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG6" s="44">
-        <f>I17-I9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH6" s="44">
-        <f>J13-J5</f>
+        <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
       <c r="AI6" s="44">
-        <f>K13-K5</f>
+        <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
       <c r="AJ6" s="44">
-        <f>L13-L5</f>
+        <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
       <c r="AK6" s="44">
-        <f>J17-J9</f>
+        <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
       <c r="AL6" s="44">
-        <f>K17-K9</f>
+        <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
       <c r="AM6" s="44">
-        <f>L17-L9</f>
+        <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
       <c r="AN6" s="44">
-        <f>M13-M5</f>
+        <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
       <c r="AO6" s="44">
-        <f>N13-N5</f>
+        <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
       <c r="AP6" s="44">
-        <f>O13-O5</f>
+        <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
       <c r="AQ6" s="44">
-        <f>M17-M9</f>
+        <f t="shared" si="5"/>
         <v>-8366</v>
       </c>
       <c r="AR6" s="44">
-        <f>N17-N9</f>
+        <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
       <c r="AS6" s="44">
-        <f>O17-O9</f>
+        <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
       <c r="AT6" s="44">
-        <f>P13-P5</f>
+        <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
       <c r="AU6" s="44">
-        <f>Q13-Q5</f>
+        <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
       <c r="AV6" s="44">
-        <f>R13-R5</f>
+        <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
       <c r="AW6" s="44">
-        <f>P17-P9</f>
+        <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
       <c r="AX6" s="44">
-        <f>Q17-Q9</f>
+        <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
       <c r="AY6" s="44">
-        <f>R17-R9</f>
+        <f t="shared" si="7"/>
         <v>-16004</v>
       </c>
       <c r="AZ6" s="44">
-        <f>S13-S5</f>
+        <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
       <c r="BA6" s="44">
-        <f>T13-T5</f>
+        <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
       <c r="BB6" s="44">
-        <f>U13-U5</f>
+        <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
       <c r="BC6" s="44">
-        <f>S17-S9</f>
+        <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
       <c r="BD6" s="44">
-        <f>T17-T9</f>
+        <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
       <c r="BE6" s="44">
-        <f>U17-U9</f>
+        <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
     </row>
@@ -13214,123 +13210,123 @@
         <v>0.04</v>
       </c>
       <c r="AB7" s="44">
-        <f>G14-G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7" s="44">
-        <f>H14-H6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD7" s="44">
-        <f>I14-I6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE7" s="44">
-        <f>G18-G10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF7" s="44">
-        <f>H18-H10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG7" s="44">
-        <f>I18-I10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH7" s="44">
-        <f>J14-J6</f>
+        <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
       <c r="AI7" s="44">
-        <f>K14-K6</f>
+        <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
       <c r="AJ7" s="44">
-        <f>L14-L6</f>
+        <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
       <c r="AK7" s="44">
-        <f>J18-J10</f>
+        <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
       <c r="AL7" s="44">
-        <f>K18-K10</f>
+        <f t="shared" si="3"/>
         <v>-3976</v>
       </c>
       <c r="AM7" s="44">
-        <f>L18-L10</f>
+        <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
       <c r="AN7" s="44">
-        <f>M14-M6</f>
+        <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
       <c r="AO7" s="44">
-        <f>N14-N6</f>
+        <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
       <c r="AP7" s="44">
-        <f>O14-O6</f>
+        <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
       <c r="AQ7" s="44">
-        <f>M18-M10</f>
+        <f t="shared" si="5"/>
         <v>-8367</v>
       </c>
       <c r="AR7" s="44">
-        <f>N18-N10</f>
+        <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
       <c r="AS7" s="44">
-        <f>O18-O10</f>
+        <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
       <c r="AT7" s="44">
-        <f>P14-P6</f>
+        <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
       <c r="AU7" s="44">
-        <f>Q14-Q6</f>
+        <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
       <c r="AV7" s="44">
-        <f>R14-R6</f>
+        <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
       <c r="AW7" s="44">
-        <f>P18-P10</f>
+        <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
       <c r="AX7" s="44">
-        <f>Q18-Q10</f>
+        <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
       <c r="AY7" s="44">
-        <f>R18-R10</f>
+        <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
       <c r="AZ7" s="44">
-        <f>S14-S6</f>
+        <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
       <c r="BA7" s="44">
-        <f>T14-T6</f>
+        <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
       <c r="BB7" s="44">
-        <f>U14-U6</f>
+        <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
       <c r="BC7" s="44">
-        <f>S18-S10</f>
+        <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
       <c r="BD7" s="44">
-        <f>T18-T10</f>
+        <f t="shared" si="9"/>
         <v>-19876</v>
       </c>
       <c r="BE7" s="44">
-        <f>U18-U10</f>
+        <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
     </row>
@@ -13414,123 +13410,123 @@
         <v>0.04</v>
       </c>
       <c r="AB8" s="44">
-        <f>G15-G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC8" s="44">
-        <f>H15-H7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD8" s="44">
-        <f>I15-I7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE8" s="44">
-        <f>G19-G11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF8" s="44">
-        <f>H19-H11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG8" s="44">
-        <f>I19-I11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH8" s="44">
-        <f>J15-J7</f>
+        <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
       <c r="AI8" s="44">
-        <f>K15-K7</f>
+        <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
       <c r="AJ8" s="44">
-        <f>L15-L7</f>
+        <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
       <c r="AK8" s="44">
-        <f>J19-J11</f>
+        <f t="shared" si="3"/>
         <v>-3585</v>
       </c>
       <c r="AL8" s="44">
-        <f>K19-K11</f>
+        <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
       <c r="AM8" s="44">
-        <f>L19-L11</f>
+        <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
       <c r="AN8" s="44">
-        <f>M15-M7</f>
+        <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
       <c r="AO8" s="44">
-        <f>N15-N7</f>
+        <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
       <c r="AP8" s="44">
-        <f>O15-O7</f>
+        <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
       <c r="AQ8" s="44">
-        <f>M19-M11</f>
+        <f t="shared" si="5"/>
         <v>-8366</v>
       </c>
       <c r="AR8" s="44">
-        <f>N19-N11</f>
+        <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
       <c r="AS8" s="44">
-        <f>O19-O11</f>
+        <f t="shared" si="5"/>
         <v>-10184</v>
       </c>
       <c r="AT8" s="44">
-        <f>P15-P7</f>
+        <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
       <c r="AU8" s="44">
-        <f>Q15-Q7</f>
+        <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
       <c r="AV8" s="44">
-        <f>R15-R7</f>
+        <f t="shared" si="6"/>
         <v>-17673</v>
       </c>
       <c r="AW8" s="44">
-        <f>P19-P11</f>
+        <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
       <c r="AX8" s="44">
-        <f>Q19-Q11</f>
+        <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
       <c r="AY8" s="44">
-        <f>R19-R11</f>
+        <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
       <c r="AZ8" s="44">
-        <f>S15-S7</f>
+        <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
       <c r="BA8" s="44">
-        <f>T15-T7</f>
+        <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
       <c r="BB8" s="44">
-        <f>U15-U7</f>
+        <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
       <c r="BC8" s="44">
-        <f>S19-S11</f>
+        <f t="shared" si="9"/>
         <v>-17928</v>
       </c>
       <c r="BD8" s="44">
-        <f>T19-T11</f>
+        <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
       <c r="BE8" s="44">
-        <f>U19-U11</f>
+        <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
     </row>
@@ -14266,63 +14262,63 @@
         <v>0.04</v>
       </c>
       <c r="G20" s="33">
-        <f>G12-G4</f>
+        <f t="shared" ref="G20:U20" si="10">G12-G4</f>
         <v>0</v>
       </c>
       <c r="H20" s="33">
-        <f>H12-H4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I20" s="33">
-        <f>I12-I4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="33">
-        <f>J12-J4</f>
+        <f t="shared" si="10"/>
         <v>-3296</v>
       </c>
       <c r="K20" s="33">
-        <f>K12-K4</f>
+        <f t="shared" si="10"/>
         <v>-3827</v>
       </c>
       <c r="L20" s="33">
-        <f>L12-L4</f>
+        <f t="shared" si="10"/>
         <v>-4820</v>
       </c>
       <c r="M20" s="33">
-        <f>M12-M4</f>
+        <f t="shared" si="10"/>
         <v>-7691</v>
       </c>
       <c r="N20" s="33">
-        <f>N12-N4</f>
+        <f t="shared" si="10"/>
         <v>-8929</v>
       </c>
       <c r="O20" s="33">
-        <f>O12-O4</f>
+        <f t="shared" si="10"/>
         <v>-11247</v>
       </c>
       <c r="P20" s="33">
-        <f>P12-P4</f>
+        <f t="shared" si="10"/>
         <v>-12086</v>
       </c>
       <c r="Q20" s="33">
-        <f>Q12-Q4</f>
+        <f t="shared" si="10"/>
         <v>-14033</v>
       </c>
       <c r="R20" s="33">
-        <f>R12-R4</f>
+        <f t="shared" si="10"/>
         <v>-17674</v>
       </c>
       <c r="S20" s="33">
-        <f>S12-S4</f>
+        <f t="shared" si="10"/>
         <v>-16480</v>
       </c>
       <c r="T20" s="33">
-        <f>T12-T4</f>
+        <f t="shared" si="10"/>
         <v>-19135</v>
       </c>
       <c r="U20" s="33">
-        <f>U12-U4</f>
+        <f t="shared" si="10"/>
         <v>-24100</v>
       </c>
     </row>
@@ -14343,63 +14339,63 @@
         <v>0.04</v>
       </c>
       <c r="G21" s="33">
-        <f>G13-G5</f>
+        <f t="shared" ref="G21:U21" si="11">G13-G5</f>
         <v>0</v>
       </c>
       <c r="H21" s="33">
-        <f>H13-H5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I21" s="33">
-        <f>I13-I5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J21" s="33">
-        <f>J13-J5</f>
+        <f t="shared" si="11"/>
         <v>-3296</v>
       </c>
       <c r="K21" s="33">
-        <f>K13-K5</f>
+        <f t="shared" si="11"/>
         <v>-3827</v>
       </c>
       <c r="L21" s="33">
-        <f>L13-L5</f>
+        <f t="shared" si="11"/>
         <v>-4820</v>
       </c>
       <c r="M21" s="33">
-        <f>M13-M5</f>
+        <f t="shared" si="11"/>
         <v>-7691</v>
       </c>
       <c r="N21" s="33">
-        <f>N13-N5</f>
+        <f t="shared" si="11"/>
         <v>-8930</v>
       </c>
       <c r="O21" s="33">
-        <f>O13-O5</f>
+        <f t="shared" si="11"/>
         <v>-11247</v>
       </c>
       <c r="P21" s="33">
-        <f>P13-P5</f>
+        <f t="shared" si="11"/>
         <v>-12086</v>
       </c>
       <c r="Q21" s="33">
-        <f>Q13-Q5</f>
+        <f t="shared" si="11"/>
         <v>-14033</v>
       </c>
       <c r="R21" s="33">
-        <f>R13-R5</f>
+        <f t="shared" si="11"/>
         <v>-17674</v>
       </c>
       <c r="S21" s="33">
-        <f>S13-S5</f>
+        <f t="shared" si="11"/>
         <v>-16481</v>
       </c>
       <c r="T21" s="33">
-        <f>T13-T5</f>
+        <f t="shared" si="11"/>
         <v>-19136</v>
       </c>
       <c r="U21" s="33">
-        <f>U13-U5</f>
+        <f t="shared" si="11"/>
         <v>-24101</v>
       </c>
     </row>
@@ -14420,63 +14416,63 @@
         <v>0.04</v>
       </c>
       <c r="G22" s="33">
-        <f>G14-G6</f>
+        <f t="shared" ref="G22:U22" si="12">G14-G6</f>
         <v>0</v>
       </c>
       <c r="H22" s="33">
-        <f>H14-H6</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I22" s="33">
-        <f>I14-I6</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J22" s="33">
-        <f>J14-J6</f>
+        <f t="shared" si="12"/>
         <v>-3296</v>
       </c>
       <c r="K22" s="33">
-        <f>K14-K6</f>
+        <f t="shared" si="12"/>
         <v>-3827</v>
       </c>
       <c r="L22" s="33">
-        <f>L14-L6</f>
+        <f t="shared" si="12"/>
         <v>-4820</v>
       </c>
       <c r="M22" s="33">
-        <f>M14-M6</f>
+        <f t="shared" si="12"/>
         <v>-7691</v>
       </c>
       <c r="N22" s="33">
-        <f>N14-N6</f>
+        <f t="shared" si="12"/>
         <v>-8930</v>
       </c>
       <c r="O22" s="33">
-        <f>O14-O6</f>
+        <f t="shared" si="12"/>
         <v>-11247</v>
       </c>
       <c r="P22" s="33">
-        <f>P14-P6</f>
+        <f t="shared" si="12"/>
         <v>-12086</v>
       </c>
       <c r="Q22" s="33">
-        <f>Q14-Q6</f>
+        <f t="shared" si="12"/>
         <v>-14033</v>
       </c>
       <c r="R22" s="33">
-        <f>R14-R6</f>
+        <f t="shared" si="12"/>
         <v>-17674</v>
       </c>
       <c r="S22" s="33">
-        <f>S14-S6</f>
+        <f t="shared" si="12"/>
         <v>-16481</v>
       </c>
       <c r="T22" s="33">
-        <f>T14-T6</f>
+        <f t="shared" si="12"/>
         <v>-19135</v>
       </c>
       <c r="U22" s="33">
-        <f>U14-U6</f>
+        <f t="shared" si="12"/>
         <v>-24100</v>
       </c>
     </row>
@@ -14497,63 +14493,63 @@
         <v>0.04</v>
       </c>
       <c r="G23" s="33">
-        <f>G15-G7</f>
+        <f t="shared" ref="G23:U23" si="13">G15-G7</f>
         <v>0</v>
       </c>
       <c r="H23" s="33">
-        <f>H15-H7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I23" s="33">
-        <f>I15-I7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J23" s="33">
-        <f>J15-J7</f>
+        <f t="shared" si="13"/>
         <v>-3296</v>
       </c>
       <c r="K23" s="33">
-        <f>K15-K7</f>
+        <f t="shared" si="13"/>
         <v>-3827</v>
       </c>
       <c r="L23" s="33">
-        <f>L15-L7</f>
+        <f t="shared" si="13"/>
         <v>-4820</v>
       </c>
       <c r="M23" s="33">
-        <f>M15-M7</f>
+        <f t="shared" si="13"/>
         <v>-7691</v>
       </c>
       <c r="N23" s="33">
-        <f>N15-N7</f>
+        <f t="shared" si="13"/>
         <v>-8930</v>
       </c>
       <c r="O23" s="33">
-        <f>O15-O7</f>
+        <f t="shared" si="13"/>
         <v>-11247</v>
       </c>
       <c r="P23" s="33">
-        <f>P15-P7</f>
+        <f t="shared" si="13"/>
         <v>-12086</v>
       </c>
       <c r="Q23" s="33">
-        <f>Q15-Q7</f>
+        <f t="shared" si="13"/>
         <v>-14033</v>
       </c>
       <c r="R23" s="33">
-        <f>R15-R7</f>
+        <f t="shared" si="13"/>
         <v>-17673</v>
       </c>
       <c r="S23" s="33">
-        <f>S15-S7</f>
+        <f t="shared" si="13"/>
         <v>-16481</v>
       </c>
       <c r="T23" s="33">
-        <f>T15-T7</f>
+        <f t="shared" si="13"/>
         <v>-19136</v>
       </c>
       <c r="U23" s="33">
-        <f>U15-U7</f>
+        <f t="shared" si="13"/>
         <v>-24101</v>
       </c>
     </row>
@@ -14574,63 +14570,63 @@
         <v>0.04</v>
       </c>
       <c r="G24" s="33">
-        <f>G16-G8</f>
+        <f t="shared" ref="G24:U24" si="14">G16-G8</f>
         <v>0</v>
       </c>
       <c r="H24" s="33">
-        <f>H16-H8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I24" s="33">
-        <f>I16-I8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J24" s="33">
-        <f>J16-J8</f>
+        <f t="shared" si="14"/>
         <v>-3586</v>
       </c>
       <c r="K24" s="33">
-        <f>K16-K8</f>
+        <f t="shared" si="14"/>
         <v>-3975</v>
       </c>
       <c r="L24" s="33">
-        <f>L16-L8</f>
+        <f t="shared" si="14"/>
         <v>-4365</v>
       </c>
       <c r="M24" s="33">
-        <f>M16-M8</f>
+        <f t="shared" si="14"/>
         <v>-8367</v>
       </c>
       <c r="N24" s="33">
-        <f>N16-N8</f>
+        <f t="shared" si="14"/>
         <v>-9275</v>
       </c>
       <c r="O24" s="33">
-        <f>O16-O8</f>
+        <f t="shared" si="14"/>
         <v>-10185</v>
       </c>
       <c r="P24" s="33">
-        <f>P16-P8</f>
+        <f t="shared" si="14"/>
         <v>-13148</v>
       </c>
       <c r="Q24" s="33">
-        <f>Q16-Q8</f>
+        <f t="shared" si="14"/>
         <v>-14576</v>
       </c>
       <c r="R24" s="33">
-        <f>R16-R8</f>
+        <f t="shared" si="14"/>
         <v>-16005</v>
       </c>
       <c r="S24" s="33">
-        <f>S16-S8</f>
+        <f t="shared" si="14"/>
         <v>-17928</v>
       </c>
       <c r="T24" s="33">
-        <f>T16-T8</f>
+        <f t="shared" si="14"/>
         <v>-19876</v>
       </c>
       <c r="U24" s="33">
-        <f>U16-U8</f>
+        <f t="shared" si="14"/>
         <v>-21825</v>
       </c>
     </row>
@@ -14651,63 +14647,63 @@
         <v>0.04</v>
       </c>
       <c r="G25" s="33">
-        <f>G17-G9</f>
+        <f t="shared" ref="G25:U25" si="15">G17-G9</f>
         <v>0</v>
       </c>
       <c r="H25" s="33">
-        <f>H17-H9</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I25" s="33">
-        <f>I17-I9</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J25" s="33">
-        <f>J17-J9</f>
+        <f t="shared" si="15"/>
         <v>-3586</v>
       </c>
       <c r="K25" s="33">
-        <f>K17-K9</f>
+        <f t="shared" si="15"/>
         <v>-3975</v>
       </c>
       <c r="L25" s="33">
-        <f>L17-L9</f>
+        <f t="shared" si="15"/>
         <v>-4365</v>
       </c>
       <c r="M25" s="33">
-        <f>M17-M9</f>
+        <f t="shared" si="15"/>
         <v>-8366</v>
       </c>
       <c r="N25" s="33">
-        <f>N17-N9</f>
+        <f t="shared" si="15"/>
         <v>-9276</v>
       </c>
       <c r="O25" s="33">
-        <f>O17-O9</f>
+        <f t="shared" si="15"/>
         <v>-10185</v>
       </c>
       <c r="P25" s="33">
-        <f>P17-P9</f>
+        <f t="shared" si="15"/>
         <v>-13148</v>
       </c>
       <c r="Q25" s="33">
-        <f>Q17-Q9</f>
+        <f t="shared" si="15"/>
         <v>-14577</v>
       </c>
       <c r="R25" s="33">
-        <f>R17-R9</f>
+        <f t="shared" si="15"/>
         <v>-16004</v>
       </c>
       <c r="S25" s="33">
-        <f>S17-S9</f>
+        <f t="shared" si="15"/>
         <v>-17929</v>
       </c>
       <c r="T25" s="33">
-        <f>T17-T9</f>
+        <f t="shared" si="15"/>
         <v>-19877</v>
       </c>
       <c r="U25" s="33">
-        <f>U17-U9</f>
+        <f t="shared" si="15"/>
         <v>-21825</v>
       </c>
     </row>
@@ -14728,63 +14724,63 @@
         <v>0.04</v>
       </c>
       <c r="G26" s="33">
-        <f>G18-G10</f>
+        <f t="shared" ref="G26:U26" si="16">G18-G10</f>
         <v>0</v>
       </c>
       <c r="H26" s="33">
-        <f>H18-H10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I26" s="33">
-        <f>I18-I10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J26" s="33">
-        <f>J18-J10</f>
+        <f t="shared" si="16"/>
         <v>-3586</v>
       </c>
       <c r="K26" s="33">
-        <f>K18-K10</f>
+        <f t="shared" si="16"/>
         <v>-3976</v>
       </c>
       <c r="L26" s="33">
-        <f>L18-L10</f>
+        <f t="shared" si="16"/>
         <v>-4365</v>
       </c>
       <c r="M26" s="33">
-        <f>M18-M10</f>
+        <f t="shared" si="16"/>
         <v>-8367</v>
       </c>
       <c r="N26" s="33">
-        <f>N18-N10</f>
+        <f t="shared" si="16"/>
         <v>-9276</v>
       </c>
       <c r="O26" s="33">
-        <f>O18-O10</f>
+        <f t="shared" si="16"/>
         <v>-10185</v>
       </c>
       <c r="P26" s="33">
-        <f>P18-P10</f>
+        <f t="shared" si="16"/>
         <v>-13148</v>
       </c>
       <c r="Q26" s="33">
-        <f>Q18-Q10</f>
+        <f t="shared" si="16"/>
         <v>-14577</v>
       </c>
       <c r="R26" s="33">
-        <f>R18-R10</f>
+        <f t="shared" si="16"/>
         <v>-16005</v>
       </c>
       <c r="S26" s="33">
-        <f>S18-S10</f>
+        <f t="shared" si="16"/>
         <v>-17929</v>
       </c>
       <c r="T26" s="33">
-        <f>T18-T10</f>
+        <f t="shared" si="16"/>
         <v>-19876</v>
       </c>
       <c r="U26" s="33">
-        <f>U18-U10</f>
+        <f t="shared" si="16"/>
         <v>-21825</v>
       </c>
     </row>
@@ -14805,63 +14801,63 @@
         <v>0.04</v>
       </c>
       <c r="G27" s="33">
-        <f>G19-G11</f>
+        <f t="shared" ref="G27:U27" si="17">G19-G11</f>
         <v>0</v>
       </c>
       <c r="H27" s="33">
-        <f>H19-H11</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I27" s="33">
-        <f>I19-I11</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J27" s="33">
-        <f>J19-J11</f>
+        <f t="shared" si="17"/>
         <v>-3585</v>
       </c>
       <c r="K27" s="33">
-        <f>K19-K11</f>
+        <f t="shared" si="17"/>
         <v>-3975</v>
       </c>
       <c r="L27" s="33">
-        <f>L19-L11</f>
+        <f t="shared" si="17"/>
         <v>-4365</v>
       </c>
       <c r="M27" s="33">
-        <f>M19-M11</f>
+        <f t="shared" si="17"/>
         <v>-8366</v>
       </c>
       <c r="N27" s="33">
-        <f>N19-N11</f>
+        <f t="shared" si="17"/>
         <v>-9276</v>
       </c>
       <c r="O27" s="33">
-        <f>O19-O11</f>
+        <f t="shared" si="17"/>
         <v>-10184</v>
       </c>
       <c r="P27" s="33">
-        <f>P19-P11</f>
+        <f t="shared" si="17"/>
         <v>-13148</v>
       </c>
       <c r="Q27" s="33">
-        <f>Q19-Q11</f>
+        <f t="shared" si="17"/>
         <v>-14577</v>
       </c>
       <c r="R27" s="33">
-        <f>R19-R11</f>
+        <f t="shared" si="17"/>
         <v>-16005</v>
       </c>
       <c r="S27" s="33">
-        <f>S19-S11</f>
+        <f t="shared" si="17"/>
         <v>-17928</v>
       </c>
       <c r="T27" s="33">
-        <f>T19-T11</f>
+        <f t="shared" si="17"/>
         <v>-19877</v>
       </c>
       <c r="U27" s="33">
-        <f>U19-U11</f>
+        <f t="shared" si="17"/>
         <v>-21825</v>
       </c>
     </row>
@@ -14870,6 +14866,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="AT1:AY1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="X2:AA2"/>
@@ -14886,16 +14892,6 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="AH1:AM1"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AT1:AY1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14911,7 +14907,7 @@
   <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14934,51 +14930,51 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -15026,7 +15022,7 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
@@ -15042,7 +15038,7 @@
       <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="68" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="67"/>
@@ -15058,7 +15054,7 @@
       <c r="S4" s="67"/>
       <c r="T4" s="67"/>
       <c r="U4" s="67"/>
-      <c r="V4" s="80"/>
+      <c r="V4" s="85"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="49"/>
@@ -15137,11 +15133,11 @@
         <v>13690</v>
       </c>
       <c r="X5" s="57">
-        <f t="shared" ref="X5:AI12" si="0">(K5-K13)/K5*100</f>
+        <f>(K5-K13)/K5*100</f>
         <v>27.778245850535004</v>
       </c>
       <c r="Y5" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X5:AI12" si="0">(L5-L13)/L5*100</f>
         <v>33.661711672090775</v>
       </c>
       <c r="Z5" s="58">
@@ -15184,7 +15180,7 @@
         <f>(V5-V13)/V5*100</f>
         <v>176.0482103725347</v>
       </c>
-      <c r="AJ5" s="82" t="s">
+      <c r="AJ5" s="74" t="s">
         <v>95</v>
       </c>
     </row>
@@ -15300,7 +15296,7 @@
         <f t="shared" si="0"/>
         <v>164.40412033562998</v>
       </c>
-      <c r="AJ6" s="83"/>
+      <c r="AJ6" s="75"/>
     </row>
     <row r="7" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
@@ -15414,7 +15410,7 @@
         <f t="shared" si="0"/>
         <v>157.60528380852733</v>
       </c>
-      <c r="AJ7" s="83"/>
+      <c r="AJ7" s="75"/>
     </row>
     <row r="8" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
@@ -15528,7 +15524,7 @@
         <f t="shared" si="0"/>
         <v>155.26349697203969</v>
       </c>
-      <c r="AJ8" s="83"/>
+      <c r="AJ8" s="75"/>
     </row>
     <row r="9" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
@@ -15642,7 +15638,7 @@
         <f t="shared" si="0"/>
         <v>110.82618189204285</v>
       </c>
-      <c r="AJ9" s="83"/>
+      <c r="AJ9" s="75"/>
     </row>
     <row r="10" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
@@ -15756,7 +15752,7 @@
         <f t="shared" si="0"/>
         <v>103.22077185017027</v>
       </c>
-      <c r="AJ10" s="83"/>
+      <c r="AJ10" s="75"/>
     </row>
     <row r="11" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -15870,7 +15866,7 @@
         <f t="shared" si="0"/>
         <v>99.839890210429999</v>
       </c>
-      <c r="AJ11" s="83"/>
+      <c r="AJ11" s="75"/>
     </row>
     <row r="12" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
@@ -15984,7 +15980,7 @@
         <f t="shared" si="0"/>
         <v>97.861082462669842</v>
       </c>
-      <c r="AJ12" s="84"/>
+      <c r="AJ12" s="76"/>
     </row>
     <row r="13" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
@@ -16062,7 +16058,7 @@
       <c r="AG13" s="48"/>
       <c r="AH13" s="48"/>
       <c r="AI13" s="48"/>
-      <c r="AJ13" s="81"/>
+      <c r="AJ13" s="73"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
@@ -16140,7 +16136,7 @@
       <c r="AG14" s="48"/>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
-      <c r="AJ14" s="81"/>
+      <c r="AJ14" s="73"/>
     </row>
     <row r="15" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
@@ -16218,7 +16214,7 @@
       <c r="AG15" s="48"/>
       <c r="AH15" s="48"/>
       <c r="AI15" s="48"/>
-      <c r="AJ15" s="81"/>
+      <c r="AJ15" s="73"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
@@ -16296,7 +16292,7 @@
       <c r="AG16" s="48"/>
       <c r="AH16" s="48"/>
       <c r="AI16" s="48"/>
-      <c r="AJ16" s="81"/>
+      <c r="AJ16" s="73"/>
     </row>
     <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -16374,7 +16370,7 @@
       <c r="AG17" s="48"/>
       <c r="AH17" s="48"/>
       <c r="AI17" s="48"/>
-      <c r="AJ17" s="81"/>
+      <c r="AJ17" s="73"/>
     </row>
     <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -16452,7 +16448,7 @@
       <c r="AG18" s="48"/>
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
-      <c r="AJ18" s="81"/>
+      <c r="AJ18" s="73"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -16530,7 +16526,7 @@
       <c r="AG19" s="48"/>
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="81"/>
+      <c r="AJ19" s="73"/>
     </row>
     <row r="20" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
@@ -16608,7 +16604,7 @@
       <c r="AG20" s="48"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
-      <c r="AJ20" s="81"/>
+      <c r="AJ20" s="73"/>
     </row>
     <row r="21" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X21" s="48"/>
@@ -16625,41 +16621,41 @@
       <c r="AI21" s="48"/>
     </row>
     <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77" t="s">
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77" t="s">
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77" t="s">
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77" t="s">
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="77"/>
-      <c r="V22" s="78"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="83"/>
       <c r="X22" s="48"/>
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
@@ -16674,14 +16670,14 @@
       <c r="AI22" s="48"/>
     </row>
     <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="67" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="80"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -16741,7 +16737,7 @@
       <c r="AI23" s="48"/>
     </row>
     <row r="24" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="76"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
@@ -16757,7 +16753,7 @@
       <c r="G24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="68" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="67"/>
@@ -16773,7 +16769,7 @@
       <c r="S24" s="67"/>
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
-      <c r="V24" s="80"/>
+      <c r="V24" s="85"/>
       <c r="X24" s="49"/>
       <c r="Y24" s="49"/>
       <c r="Z24" s="49"/>
@@ -16899,7 +16895,7 @@
         <f t="shared" si="1"/>
         <v>160.54893078409168</v>
       </c>
-      <c r="AJ25" s="82" t="s">
+      <c r="AJ25" s="74" t="s">
         <v>95</v>
       </c>
     </row>
@@ -16976,7 +16972,7 @@
         <v>29.703508227258613</v>
       </c>
       <c r="Z26" s="61">
-        <f t="shared" ref="Z26:Z32" si="4">(M26-M34)/M26*100</f>
+        <f t="shared" ref="Z26:Z31" si="4">(M26-M34)/M26*100</f>
         <v>40.334728033472807</v>
       </c>
       <c r="AA26" s="61">
@@ -17015,7 +17011,7 @@
         <f t="shared" ref="AI26:AI32" si="13">(V26-V34)/V26*100</f>
         <v>150.81033727551468</v>
       </c>
-      <c r="AJ26" s="83"/>
+      <c r="AJ26" s="75"/>
     </row>
     <row r="27" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -17129,7 +17125,7 @@
         <f t="shared" si="13"/>
         <v>145.06711611388673</v>
       </c>
-      <c r="AJ27" s="83"/>
+      <c r="AJ27" s="75"/>
     </row>
     <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -17243,7 +17239,7 @@
         <f t="shared" si="13"/>
         <v>143.08359059605795</v>
       </c>
-      <c r="AJ28" s="83"/>
+      <c r="AJ28" s="75"/>
     </row>
     <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -17357,7 +17353,7 @@
         <f t="shared" si="13"/>
         <v>103.85933187398876</v>
       </c>
-      <c r="AJ29" s="83"/>
+      <c r="AJ29" s="75"/>
     </row>
     <row r="30" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -17471,7 +17467,7 @@
         <f t="shared" si="13"/>
         <v>97.146799608296988</v>
       </c>
-      <c r="AJ30" s="83"/>
+      <c r="AJ30" s="75"/>
     </row>
     <row r="31" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -17585,7 +17581,7 @@
         <f t="shared" si="13"/>
         <v>94.150381778180403</v>
       </c>
-      <c r="AJ31" s="83"/>
+      <c r="AJ31" s="75"/>
     </row>
     <row r="32" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -17699,7 +17695,7 @@
         <f t="shared" si="13"/>
         <v>92.388773652796004</v>
       </c>
-      <c r="AJ32" s="84"/>
+      <c r="AJ32" s="76"/>
     </row>
     <row r="33" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -18327,11 +18323,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AJ13:AJ20"/>
-    <mergeCell ref="AJ5:AJ12"/>
-    <mergeCell ref="AJ25:AJ32"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:G2"/>
@@ -18348,6 +18339,11 @@
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AJ13:AJ20"/>
+    <mergeCell ref="AJ5:AJ12"/>
+    <mergeCell ref="AJ25:AJ32"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:V20">
     <cfRule type="colorScale" priority="2">
@@ -18416,13 +18412,13 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -18786,12 +18782,12 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="31"/>
       <c r="G26" s="20"/>
     </row>

--- a/Results/0 Compiled Results for Manuscript.xlsx
+++ b/Results/0 Compiled Results for Manuscript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1726" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC3A9A2-074C-4001-8B47-D880571ACBC7}"/>
+  <xr:revisionPtr revIDLastSave="1836" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A14CA8-D0E2-4654-805E-DAEFD454D1AB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAV" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="105">
   <si>
     <t>0% Solar</t>
   </si>
@@ -134,12 +134,6 @@
     <t>$/Watt</t>
   </si>
   <si>
-    <t>0, 25, 50, 75, 100</t>
-  </si>
-  <si>
-    <t>Photovoltiac system</t>
-  </si>
-  <si>
     <t>Solar panel length</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Tomato and strawberry production</t>
-  </si>
-  <si>
     <t>Tomato marketing cost (1,360 boxes)</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
   </si>
   <si>
     <t>Strawberry marketing supplies</t>
-  </si>
-  <si>
-    <t>CITE</t>
   </si>
   <si>
     <t>\parencite{AUEntBudget}</t>
@@ -328,6 +316,45 @@
   <si>
     <t>Decrease in profit due to decrease in REAP by 25%</t>
   </si>
+  <si>
+    <t>Speciality crop paremeters</t>
+  </si>
+  <si>
+    <t>PV Configuration</t>
+  </si>
+  <si>
+    <t>PV CAPEX and Operational Cost</t>
+  </si>
+  <si>
+    <t>Locational Parameters</t>
+  </si>
+  <si>
+    <t>Northern Region zipcode</t>
+  </si>
+  <si>
+    <t>Central Region Zipcode</t>
+  </si>
+  <si>
+    <t>Southern Region Zip Code</t>
+  </si>
+  <si>
+    <t>Black belt region Zip Code</t>
+  </si>
+  <si>
+    <t>model assumptions</t>
+  </si>
+  <si>
+    <t>Total panels at 100% PVD</t>
+  </si>
+  <si>
+    <t>panels</t>
+  </si>
+  <si>
+    <t>Electricity price and energy policy incentives</t>
+  </si>
+  <si>
+    <t>0 to 100%</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +364,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,13 +384,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -388,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -829,6 +849,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -875,48 +904,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -943,8 +930,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -983,14 +970,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,20 +982,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,6 +1003,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,11 +1015,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9565,7 +9594,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9592,94 +9621,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="67" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67" t="s">
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67" t="s">
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67" t="s">
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
     </row>
     <row r="2" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -9725,63 +9754,63 @@
       <c r="U2" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="69" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69" t="s">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69" t="s">
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69" t="s">
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69" t="s">
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69" t="s">
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69" t="s">
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69" t="s">
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
     </row>
     <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9802,30 +9831,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="67" t="s">
+      <c r="G3" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
       <c r="AC3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -9981,7 +10010,7 @@
       <c r="U4" s="6">
         <v>13690</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="Y4" s="2" t="s">
@@ -9996,36 +10025,36 @@
       <c r="AB4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="47"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33"/>
     </row>
     <row r="5" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -10091,8 +10120,8 @@
       <c r="U5" s="6">
         <v>14659</v>
       </c>
-      <c r="X5" s="43" t="s">
-        <v>93</v>
+      <c r="X5" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>12</v>
@@ -10106,123 +10135,123 @@
       <c r="AB5" s="2">
         <v>0.04</v>
       </c>
-      <c r="AC5" s="44">
+      <c r="AC5" s="30">
         <f t="shared" ref="AC5:AE8" si="0">G12-G4</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="44">
+      <c r="AD5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="44">
+      <c r="AE5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="44">
+      <c r="AF5" s="30">
         <f t="shared" ref="AF5:AH8" si="1">G16-G8</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="44">
+      <c r="AG5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="44">
+      <c r="AH5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="44">
+      <c r="AI5" s="30">
         <f>J12-J4</f>
         <v>-3297</v>
       </c>
-      <c r="AJ5" s="44">
+      <c r="AJ5" s="30">
         <f t="shared" ref="AI5:AK8" si="2">K12-K4</f>
         <v>-3827</v>
       </c>
-      <c r="AK5" s="44">
+      <c r="AK5" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AL5" s="44">
+      <c r="AL5" s="30">
         <f t="shared" ref="AL5:AN8" si="3">J16-J8</f>
         <v>-3586</v>
       </c>
-      <c r="AM5" s="44">
+      <c r="AM5" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AN5" s="44">
+      <c r="AN5" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AO5" s="44">
+      <c r="AO5" s="30">
         <f t="shared" ref="AO5:AQ8" si="4">M12-M4</f>
         <v>-7691</v>
       </c>
-      <c r="AP5" s="44">
+      <c r="AP5" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AR5" s="44">
+      <c r="AR5" s="30">
         <f t="shared" ref="AR5:AT8" si="5">M16-M8</f>
         <v>-8366</v>
       </c>
-      <c r="AS5" s="44">
+      <c r="AS5" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AT5" s="44">
+      <c r="AT5" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AU5" s="44">
+      <c r="AU5" s="30">
         <f t="shared" ref="AU5:AW8" si="6">P12-P4</f>
         <v>-12085</v>
       </c>
-      <c r="AV5" s="44">
+      <c r="AV5" s="30">
         <f t="shared" si="6"/>
         <v>-14032</v>
       </c>
-      <c r="AW5" s="44">
+      <c r="AW5" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AX5" s="44">
+      <c r="AX5" s="30">
         <f t="shared" ref="AX5:AZ8" si="7">P16-P8</f>
         <v>-13148</v>
       </c>
-      <c r="AY5" s="44">
+      <c r="AY5" s="30">
         <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
-      <c r="AZ5" s="44">
+      <c r="AZ5" s="30">
         <f t="shared" si="7"/>
         <v>-16004</v>
       </c>
-      <c r="BA5" s="44">
+      <c r="BA5" s="30">
         <f t="shared" ref="BA5:BC8" si="8">S12-S4</f>
         <v>-16481</v>
       </c>
-      <c r="BB5" s="44">
+      <c r="BB5" s="30">
         <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
-      <c r="BC5" s="44">
+      <c r="BC5" s="30">
         <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
-      <c r="BD5" s="44">
+      <c r="BD5" s="30">
         <f t="shared" ref="BD5:BF8" si="9">S16-S8</f>
         <v>-17929</v>
       </c>
-      <c r="BE5" s="44">
+      <c r="BE5" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BF5" s="44">
+      <c r="BF5" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -10291,8 +10320,8 @@
       <c r="U6" s="6">
         <v>15292</v>
       </c>
-      <c r="X6" s="43" t="s">
-        <v>93</v>
+      <c r="X6" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>14</v>
@@ -10306,123 +10335,123 @@
       <c r="AB6" s="2">
         <v>0.04</v>
       </c>
-      <c r="AC6" s="44">
+      <c r="AC6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="44">
+      <c r="AD6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="44">
+      <c r="AE6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="44">
+      <c r="AF6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="44">
+      <c r="AG6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="44">
+      <c r="AH6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="44">
+      <c r="AI6" s="30">
         <f t="shared" si="2"/>
         <v>-3297</v>
       </c>
-      <c r="AJ6" s="44">
+      <c r="AJ6" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AK6" s="44">
+      <c r="AK6" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AL6" s="44">
+      <c r="AL6" s="30">
         <f t="shared" si="3"/>
         <v>-3585</v>
       </c>
-      <c r="AM6" s="44">
+      <c r="AM6" s="30">
         <f t="shared" si="3"/>
         <v>-3976</v>
       </c>
-      <c r="AN6" s="44">
+      <c r="AN6" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AO6" s="44">
+      <c r="AO6" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AP6" s="44">
+      <c r="AP6" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AR6" s="44">
+      <c r="AR6" s="30">
         <f t="shared" si="5"/>
         <v>-8367</v>
       </c>
-      <c r="AS6" s="44">
+      <c r="AS6" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AT6" s="44">
+      <c r="AT6" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AU6" s="44">
+      <c r="AU6" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AV6" s="44">
+      <c r="AV6" s="30">
         <f t="shared" si="6"/>
         <v>-14032</v>
       </c>
-      <c r="AW6" s="44">
+      <c r="AW6" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AX6" s="44">
+      <c r="AX6" s="30">
         <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
-      <c r="AY6" s="44">
+      <c r="AY6" s="30">
         <f t="shared" si="7"/>
         <v>-14576</v>
       </c>
-      <c r="AZ6" s="44">
+      <c r="AZ6" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="BA6" s="44">
+      <c r="BA6" s="30">
         <f t="shared" si="8"/>
         <v>-16480</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BB6" s="30">
         <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
-      <c r="BC6" s="44">
+      <c r="BC6" s="30">
         <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
-      <c r="BD6" s="44">
+      <c r="BD6" s="30">
         <f t="shared" si="9"/>
         <v>-17928</v>
       </c>
-      <c r="BE6" s="44">
+      <c r="BE6" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BF6" s="44">
+      <c r="BF6" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -10491,8 +10520,8 @@
       <c r="U7" s="6">
         <v>15522</v>
       </c>
-      <c r="X7" s="43" t="s">
-        <v>93</v>
+      <c r="X7" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>15</v>
@@ -10506,123 +10535,123 @@
       <c r="AB7" s="2">
         <v>0.04</v>
       </c>
-      <c r="AC7" s="44">
+      <c r="AC7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="44">
+      <c r="AD7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="44">
+      <c r="AE7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="44">
+      <c r="AF7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="44">
+      <c r="AG7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="44">
+      <c r="AH7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="44">
+      <c r="AI7" s="30">
         <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
-      <c r="AJ7" s="44">
+      <c r="AJ7" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AK7" s="44">
+      <c r="AK7" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AL7" s="44">
+      <c r="AL7" s="30">
         <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
-      <c r="AM7" s="44">
+      <c r="AM7" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AN7" s="44">
+      <c r="AN7" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AO7" s="44">
+      <c r="AO7" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AP7" s="44">
+      <c r="AP7" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AQ7" s="44">
+      <c r="AQ7" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AR7" s="44">
+      <c r="AR7" s="30">
         <f t="shared" si="5"/>
         <v>-8367</v>
       </c>
-      <c r="AS7" s="44">
+      <c r="AS7" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AT7" s="44">
+      <c r="AT7" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AU7" s="44">
+      <c r="AU7" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AV7" s="44">
+      <c r="AV7" s="30">
         <f t="shared" si="6"/>
         <v>-14032</v>
       </c>
-      <c r="AW7" s="44">
+      <c r="AW7" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AX7" s="44">
+      <c r="AX7" s="30">
         <f t="shared" si="7"/>
         <v>-13147</v>
       </c>
-      <c r="AY7" s="44">
+      <c r="AY7" s="30">
         <f t="shared" si="7"/>
         <v>-14576</v>
       </c>
-      <c r="AZ7" s="44">
+      <c r="AZ7" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="BA7" s="44">
+      <c r="BA7" s="30">
         <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
-      <c r="BB7" s="44">
+      <c r="BB7" s="30">
         <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
-      <c r="BC7" s="44">
+      <c r="BC7" s="30">
         <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
-      <c r="BD7" s="44">
+      <c r="BD7" s="30">
         <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
-      <c r="BE7" s="44">
+      <c r="BE7" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BF7" s="44">
+      <c r="BF7" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -10691,8 +10720,8 @@
       <c r="U8" s="6">
         <v>19693</v>
       </c>
-      <c r="X8" s="43" t="s">
-        <v>93</v>
+      <c r="X8" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>16</v>
@@ -10706,123 +10735,123 @@
       <c r="AB8" s="2">
         <v>0.04</v>
       </c>
-      <c r="AC8" s="44">
+      <c r="AC8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="44">
+      <c r="AD8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="44">
+      <c r="AE8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="44">
+      <c r="AF8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="44">
+      <c r="AG8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="44">
+      <c r="AH8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="44">
+      <c r="AI8" s="30">
         <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
-      <c r="AJ8" s="44">
+      <c r="AJ8" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AK8" s="44">
+      <c r="AK8" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AL8" s="44">
+      <c r="AL8" s="30">
         <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
-      <c r="AM8" s="44">
+      <c r="AM8" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AN8" s="44">
+      <c r="AN8" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AO8" s="44">
+      <c r="AO8" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AP8" s="44">
+      <c r="AP8" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AQ8" s="44">
+      <c r="AQ8" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AR8" s="44">
+      <c r="AR8" s="30">
         <f t="shared" si="5"/>
         <v>-8367</v>
       </c>
-      <c r="AS8" s="44">
+      <c r="AS8" s="30">
         <f t="shared" si="5"/>
         <v>-9275</v>
       </c>
-      <c r="AT8" s="44">
+      <c r="AT8" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AU8" s="44">
+      <c r="AU8" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AV8" s="44">
+      <c r="AV8" s="30">
         <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
-      <c r="AW8" s="44">
+      <c r="AW8" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AX8" s="44">
+      <c r="AX8" s="30">
         <f t="shared" si="7"/>
         <v>-13147</v>
       </c>
-      <c r="AY8" s="44">
+      <c r="AY8" s="30">
         <f t="shared" si="7"/>
         <v>-14576</v>
       </c>
-      <c r="AZ8" s="44">
+      <c r="AZ8" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="BA8" s="44">
+      <c r="BA8" s="30">
         <f t="shared" si="8"/>
         <v>-16480</v>
       </c>
-      <c r="BB8" s="44">
+      <c r="BB8" s="30">
         <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
-      <c r="BC8" s="44">
+      <c r="BC8" s="30">
         <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
-      <c r="BD8" s="44">
+      <c r="BD8" s="30">
         <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
-      <c r="BE8" s="44">
+      <c r="BE8" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BF8" s="44">
+      <c r="BF8" s="30">
         <f t="shared" si="9"/>
         <v>-21824</v>
       </c>
@@ -10891,23 +10920,23 @@
       <c r="U9" s="6">
         <v>21144</v>
       </c>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
     </row>
     <row r="10" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -10973,23 +11002,23 @@
       <c r="U10" s="6">
         <v>21860</v>
       </c>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
     </row>
     <row r="11" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -11055,23 +11084,23 @@
       <c r="U11" s="8">
         <v>22301</v>
       </c>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
     </row>
     <row r="12" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -11137,23 +11166,23 @@
       <c r="U12" s="6">
         <v>-10411</v>
       </c>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
     </row>
     <row r="13" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -11626,63 +11655,63 @@
       <c r="E20" s="2">
         <v>0.04</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="19">
         <f>G12-G4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="19">
         <f t="shared" ref="H20:J20" si="10">H12-H4</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="19">
         <f t="shared" si="10"/>
         <v>-3297</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="19">
         <f t="shared" ref="K20:T20" si="11">K12-K4</f>
         <v>-3827</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="19">
         <f t="shared" si="11"/>
         <v>-4820</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="19">
         <f t="shared" si="11"/>
         <v>-7691</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="19">
         <f t="shared" si="11"/>
         <v>-8930</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="19">
         <f t="shared" si="11"/>
         <v>-11247</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="19">
         <f t="shared" si="11"/>
         <v>-12085</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="19">
         <f t="shared" si="11"/>
         <v>-14032</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="19">
         <f t="shared" si="11"/>
         <v>-17674</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="19">
         <f t="shared" si="11"/>
         <v>-16481</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="19">
         <f t="shared" si="11"/>
         <v>-19136</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="19">
         <f>U12-U4</f>
         <v>-24101</v>
       </c>
@@ -11703,63 +11732,63 @@
       <c r="E21" s="2">
         <v>0.04</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="19">
         <f t="shared" ref="G21:G27" si="12">G13-G5</f>
         <v>0</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="19">
         <f t="shared" ref="H21:J21" si="13">H13-H5</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="19">
         <f t="shared" si="13"/>
         <v>-3297</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="19">
         <f t="shared" ref="K21:U21" si="14">K13-K5</f>
         <v>-3827</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="19">
         <f t="shared" si="14"/>
         <v>-4820</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="19">
         <f t="shared" si="14"/>
         <v>-7691</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="19">
         <f t="shared" si="14"/>
         <v>-8930</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="19">
         <f t="shared" si="14"/>
         <v>-11247</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="19">
         <f t="shared" si="14"/>
         <v>-12086</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="19">
         <f t="shared" si="14"/>
         <v>-14032</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="19">
         <f t="shared" si="14"/>
         <v>-17674</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="19">
         <f t="shared" si="14"/>
         <v>-16480</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="19">
         <f t="shared" si="14"/>
         <v>-19135</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="19">
         <f t="shared" si="14"/>
         <v>-24100</v>
       </c>
@@ -11780,63 +11809,63 @@
       <c r="E22" s="2">
         <v>0.04</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="19">
         <f t="shared" ref="H22:J22" si="15">H14-H6</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="19">
         <f t="shared" si="15"/>
         <v>-3296</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="19">
         <f t="shared" ref="K22:U22" si="16">K14-K6</f>
         <v>-3827</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="19">
         <f t="shared" si="16"/>
         <v>-4820</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="19">
         <f t="shared" si="16"/>
         <v>-7691</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="19">
         <f t="shared" si="16"/>
         <v>-8930</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="19">
         <f t="shared" si="16"/>
         <v>-11247</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="19">
         <f t="shared" si="16"/>
         <v>-12086</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="19">
         <f t="shared" si="16"/>
         <v>-14032</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="19">
         <f t="shared" si="16"/>
         <v>-17674</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="19">
         <f t="shared" si="16"/>
         <v>-16481</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="19">
         <f t="shared" si="16"/>
         <v>-19136</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="19">
         <f t="shared" si="16"/>
         <v>-24101</v>
       </c>
@@ -11857,63 +11886,63 @@
       <c r="E23" s="2">
         <v>0.04</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="19">
         <f t="shared" ref="H23:J23" si="17">H15-H7</f>
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="19">
         <f t="shared" si="17"/>
         <v>-3296</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="19">
         <f t="shared" ref="K23:U23" si="18">K15-K7</f>
         <v>-3827</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="19">
         <f t="shared" si="18"/>
         <v>-4820</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="19">
         <f t="shared" si="18"/>
         <v>-7691</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="19">
         <f t="shared" si="18"/>
         <v>-8930</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="19">
         <f t="shared" si="18"/>
         <v>-11247</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="19">
         <f t="shared" si="18"/>
         <v>-12086</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="19">
         <f t="shared" si="18"/>
         <v>-14033</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="19">
         <f t="shared" si="18"/>
         <v>-17674</v>
       </c>
-      <c r="S23" s="33">
+      <c r="S23" s="19">
         <f t="shared" si="18"/>
         <v>-16480</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="19">
         <f t="shared" si="18"/>
         <v>-19135</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="19">
         <f t="shared" si="18"/>
         <v>-24100</v>
       </c>
@@ -11934,63 +11963,63 @@
       <c r="E24" s="2">
         <v>0.04</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="19">
         <f t="shared" ref="H24:J24" si="19">H16-H8</f>
         <v>0</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="19">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="19">
         <f t="shared" si="19"/>
         <v>-3586</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="19">
         <f t="shared" ref="K24:U24" si="20">K16-K8</f>
         <v>-3975</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="19">
         <f t="shared" si="20"/>
         <v>-4365</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="19">
         <f t="shared" si="20"/>
         <v>-8366</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="19">
         <f t="shared" si="20"/>
         <v>-9276</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="19">
         <f t="shared" si="20"/>
         <v>-10185</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="19">
         <f t="shared" si="20"/>
         <v>-13148</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="19">
         <f t="shared" si="20"/>
         <v>-14577</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="19">
         <f t="shared" si="20"/>
         <v>-16004</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="19">
         <f t="shared" si="20"/>
         <v>-17929</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="19">
         <f t="shared" si="20"/>
         <v>-19877</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="19">
         <f t="shared" si="20"/>
         <v>-21825</v>
       </c>
@@ -12011,63 +12040,63 @@
       <c r="E25" s="2">
         <v>0.04</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="19">
         <f t="shared" ref="H25:J25" si="21">H17-H9</f>
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="19">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="19">
         <f t="shared" si="21"/>
         <v>-3585</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="19">
         <f t="shared" ref="K25:T25" si="22">K17-K9</f>
         <v>-3976</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="19">
         <f t="shared" si="22"/>
         <v>-4365</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="19">
         <f t="shared" si="22"/>
         <v>-8367</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="19">
         <f t="shared" si="22"/>
         <v>-9276</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="19">
         <f t="shared" si="22"/>
         <v>-10185</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="19">
         <f t="shared" si="22"/>
         <v>-13148</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="19">
         <f t="shared" si="22"/>
         <v>-14576</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="19">
         <f t="shared" si="22"/>
         <v>-16005</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="19">
         <f t="shared" si="22"/>
         <v>-17928</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="19">
         <f t="shared" si="22"/>
         <v>-19877</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="19">
         <f>U17-U9</f>
         <v>-21825</v>
       </c>
@@ -12088,63 +12117,63 @@
       <c r="E26" s="2">
         <v>0.04</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="19">
         <f t="shared" ref="H26:J26" si="23">H18-H10</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="19">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="19">
         <f t="shared" si="23"/>
         <v>-3586</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="19">
         <f t="shared" ref="K26:U26" si="24">K18-K10</f>
         <v>-3975</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="19">
         <f t="shared" si="24"/>
         <v>-4365</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="19">
         <f t="shared" si="24"/>
         <v>-8367</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="19">
         <f t="shared" si="24"/>
         <v>-9276</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="19">
         <f t="shared" si="24"/>
         <v>-10185</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="19">
         <f t="shared" si="24"/>
         <v>-13147</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="19">
         <f t="shared" si="24"/>
         <v>-14576</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="19">
         <f t="shared" si="24"/>
         <v>-16005</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="19">
         <f t="shared" si="24"/>
         <v>-17929</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="19">
         <f t="shared" si="24"/>
         <v>-19877</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="19">
         <f t="shared" si="24"/>
         <v>-21825</v>
       </c>
@@ -12165,72 +12194,88 @@
       <c r="E27" s="2">
         <v>0.04</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="19">
         <f t="shared" ref="H27:J27" si="25">H19-H11</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="19">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="19">
         <f t="shared" si="25"/>
         <v>-3586</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="19">
         <f t="shared" ref="K27:T27" si="26">K19-K11</f>
         <v>-3975</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="19">
         <f t="shared" si="26"/>
         <v>-4365</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="19">
         <f t="shared" si="26"/>
         <v>-8367</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="19">
         <f t="shared" si="26"/>
         <v>-9275</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="19">
         <f t="shared" si="26"/>
         <v>-10185</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="19">
         <f t="shared" si="26"/>
         <v>-13147</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="19">
         <f t="shared" si="26"/>
         <v>-14576</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="19">
         <f t="shared" si="26"/>
         <v>-16005</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="19">
         <f t="shared" si="26"/>
         <v>-17929</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="19">
         <f t="shared" si="26"/>
         <v>-19877</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="19">
         <f>U19-U11</f>
         <v>-21824</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G29" s="33"/>
+      <c r="G29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AU1:AZ1"/>
@@ -12241,22 +12286,6 @@
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -12295,94 +12324,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="67" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67" t="s">
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67" t="s">
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67" t="s">
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
     </row>
     <row r="2" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -12428,63 +12457,63 @@
       <c r="U2" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69" t="s">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69" t="s">
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69" t="s">
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
     </row>
     <row r="3" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -12505,30 +12534,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="67" t="s">
+      <c r="G3" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -12639,52 +12668,52 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="20">
         <v>10941</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="20">
         <v>10941</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="20">
         <v>10941</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="20">
         <v>13190</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="20">
         <v>12690</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="20">
         <v>11756</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="20">
         <v>16186</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="20">
         <v>15020</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="20">
         <v>12840</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="20">
         <v>19184</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="20">
         <v>17352</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="20">
         <v>13926</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="20">
         <v>22181</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="20">
         <v>19683</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="21">
         <v>15011</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -12699,36 +12728,36 @@
       <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
     </row>
     <row r="5" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -12749,53 +12778,53 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="20">
         <v>10941</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="20">
         <v>10941</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="20">
         <v>10941</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="20">
         <v>13384</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="20">
         <v>12884</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="20">
         <v>11950</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="20">
         <v>16639</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="20">
         <v>15473</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="20">
         <v>13293</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="20">
         <v>19895</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="20">
         <v>18063</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="20">
         <v>14637</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="20">
         <v>23151</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="20">
         <v>20653</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="21">
         <v>15981</v>
       </c>
-      <c r="W5" s="43" t="s">
-        <v>93</v>
+      <c r="W5" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>12</v>
@@ -12809,123 +12838,123 @@
       <c r="AA5" s="2">
         <v>0.04</v>
       </c>
-      <c r="AB5" s="44">
+      <c r="AB5" s="30">
         <f t="shared" ref="AB5:AD8" si="0">G12-G4</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="44">
+      <c r="AC5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="44">
+      <c r="AD5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="44">
+      <c r="AE5" s="30">
         <f t="shared" ref="AE5:AG8" si="1">G16-G8</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="44">
+      <c r="AF5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="44">
+      <c r="AG5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="44">
+      <c r="AH5" s="30">
         <f t="shared" ref="AH5:AJ8" si="2">J12-J4</f>
         <v>-3296</v>
       </c>
-      <c r="AI5" s="44">
+      <c r="AI5" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AJ5" s="44">
+      <c r="AJ5" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AK5" s="44">
+      <c r="AK5" s="30">
         <f t="shared" ref="AK5:AM8" si="3">J16-J8</f>
         <v>-3586</v>
       </c>
-      <c r="AL5" s="44">
+      <c r="AL5" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AM5" s="44">
+      <c r="AM5" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AN5" s="44">
+      <c r="AN5" s="30">
         <f t="shared" ref="AN5:AP8" si="4">M12-M4</f>
         <v>-7691</v>
       </c>
-      <c r="AO5" s="44">
+      <c r="AO5" s="30">
         <f t="shared" si="4"/>
         <v>-8929</v>
       </c>
-      <c r="AP5" s="44">
+      <c r="AP5" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="30">
         <f t="shared" ref="AQ5:AS8" si="5">M16-M8</f>
         <v>-8367</v>
       </c>
-      <c r="AR5" s="44">
+      <c r="AR5" s="30">
         <f t="shared" si="5"/>
         <v>-9275</v>
       </c>
-      <c r="AS5" s="44">
+      <c r="AS5" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AT5" s="44">
+      <c r="AT5" s="30">
         <f t="shared" ref="AT5:AV8" si="6">P12-P4</f>
         <v>-12086</v>
       </c>
-      <c r="AU5" s="44">
+      <c r="AU5" s="30">
         <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
-      <c r="AV5" s="44">
+      <c r="AV5" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AW5" s="44">
+      <c r="AW5" s="30">
         <f t="shared" ref="AW5:AY8" si="7">P16-P8</f>
         <v>-13148</v>
       </c>
-      <c r="AX5" s="44">
+      <c r="AX5" s="30">
         <f t="shared" si="7"/>
         <v>-14576</v>
       </c>
-      <c r="AY5" s="44">
+      <c r="AY5" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="AZ5" s="44">
+      <c r="AZ5" s="30">
         <f t="shared" ref="AZ5:BB8" si="8">S12-S4</f>
         <v>-16480</v>
       </c>
-      <c r="BA5" s="44">
+      <c r="BA5" s="30">
         <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
-      <c r="BB5" s="44">
+      <c r="BB5" s="30">
         <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
-      <c r="BC5" s="44">
+      <c r="BC5" s="30">
         <f t="shared" ref="BC5:BE8" si="9">S16-S8</f>
         <v>-17928</v>
       </c>
-      <c r="BD5" s="44">
+      <c r="BD5" s="30">
         <f t="shared" si="9"/>
         <v>-19876</v>
       </c>
-      <c r="BE5" s="44">
+      <c r="BE5" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -12949,53 +12978,53 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="20">
         <v>10941</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="20">
         <v>10941</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="20">
         <v>10941</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="20">
         <v>13511</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="20">
         <v>13011</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="20">
         <v>12077</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="20">
         <v>16934</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="20">
         <v>15768</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="20">
         <v>13588</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="20">
         <v>20359</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="20">
         <v>18527</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="20">
         <v>15101</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="20">
         <v>23784</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="20">
         <v>21285</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="21">
         <v>16613</v>
       </c>
-      <c r="W6" s="43" t="s">
-        <v>93</v>
+      <c r="W6" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>14</v>
@@ -13009,123 +13038,123 @@
       <c r="AA6" s="2">
         <v>0.04</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="44">
+      <c r="AC6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="44">
+      <c r="AD6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="44">
+      <c r="AE6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="44">
+      <c r="AF6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="44">
+      <c r="AG6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="44">
+      <c r="AH6" s="30">
         <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
-      <c r="AI6" s="44">
+      <c r="AI6" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AJ6" s="44">
+      <c r="AJ6" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AK6" s="44">
+      <c r="AK6" s="30">
         <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
-      <c r="AL6" s="44">
+      <c r="AL6" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AM6" s="44">
+      <c r="AM6" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AN6" s="44">
+      <c r="AN6" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AO6" s="44">
+      <c r="AO6" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AP6" s="44">
+      <c r="AP6" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="30">
         <f t="shared" si="5"/>
         <v>-8366</v>
       </c>
-      <c r="AR6" s="44">
+      <c r="AR6" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AS6" s="44">
+      <c r="AS6" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AT6" s="44">
+      <c r="AT6" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AU6" s="44">
+      <c r="AU6" s="30">
         <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
-      <c r="AV6" s="44">
+      <c r="AV6" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AW6" s="44">
+      <c r="AW6" s="30">
         <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
-      <c r="AX6" s="44">
+      <c r="AX6" s="30">
         <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
-      <c r="AY6" s="44">
+      <c r="AY6" s="30">
         <f t="shared" si="7"/>
         <v>-16004</v>
       </c>
-      <c r="AZ6" s="44">
+      <c r="AZ6" s="30">
         <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
-      <c r="BA6" s="44">
+      <c r="BA6" s="30">
         <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BB6" s="30">
         <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
-      <c r="BC6" s="44">
+      <c r="BC6" s="30">
         <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
-      <c r="BD6" s="44">
+      <c r="BD6" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BE6" s="44">
+      <c r="BE6" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -13149,53 +13178,53 @@
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="20">
         <v>10941</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="20">
         <v>10941</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="20">
         <v>10941</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="20">
         <v>13557</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="20">
         <v>13057</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="20">
         <v>12123</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="20">
         <v>17042</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="20">
         <v>15876</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="20">
         <v>13695</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="20">
         <v>20528</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="20">
         <v>18696</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="20">
         <v>15269</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="20">
         <v>24014</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="20">
         <v>21516</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="21">
         <v>16844</v>
       </c>
-      <c r="W7" s="43" t="s">
-        <v>93</v>
+      <c r="W7" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>15</v>
@@ -13209,123 +13238,123 @@
       <c r="AA7" s="2">
         <v>0.04</v>
       </c>
-      <c r="AB7" s="44">
+      <c r="AB7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="44">
+      <c r="AC7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="44">
+      <c r="AD7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="44">
+      <c r="AE7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="44">
+      <c r="AF7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="44">
+      <c r="AG7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="44">
+      <c r="AH7" s="30">
         <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
-      <c r="AI7" s="44">
+      <c r="AI7" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AJ7" s="44">
+      <c r="AJ7" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AK7" s="44">
+      <c r="AK7" s="30">
         <f t="shared" si="3"/>
         <v>-3586</v>
       </c>
-      <c r="AL7" s="44">
+      <c r="AL7" s="30">
         <f t="shared" si="3"/>
         <v>-3976</v>
       </c>
-      <c r="AM7" s="44">
+      <c r="AM7" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AN7" s="44">
+      <c r="AN7" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AO7" s="44">
+      <c r="AO7" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AP7" s="44">
+      <c r="AP7" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AQ7" s="44">
+      <c r="AQ7" s="30">
         <f t="shared" si="5"/>
         <v>-8367</v>
       </c>
-      <c r="AR7" s="44">
+      <c r="AR7" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AS7" s="44">
+      <c r="AS7" s="30">
         <f t="shared" si="5"/>
         <v>-10185</v>
       </c>
-      <c r="AT7" s="44">
+      <c r="AT7" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AU7" s="44">
+      <c r="AU7" s="30">
         <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
-      <c r="AV7" s="44">
+      <c r="AV7" s="30">
         <f t="shared" si="6"/>
         <v>-17674</v>
       </c>
-      <c r="AW7" s="44">
+      <c r="AW7" s="30">
         <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
-      <c r="AX7" s="44">
+      <c r="AX7" s="30">
         <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
-      <c r="AY7" s="44">
+      <c r="AY7" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="AZ7" s="44">
+      <c r="AZ7" s="30">
         <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
-      <c r="BA7" s="44">
+      <c r="BA7" s="30">
         <f t="shared" si="8"/>
         <v>-19135</v>
       </c>
-      <c r="BB7" s="44">
+      <c r="BB7" s="30">
         <f t="shared" si="8"/>
         <v>-24100</v>
       </c>
-      <c r="BC7" s="44">
+      <c r="BC7" s="30">
         <f t="shared" si="9"/>
         <v>-17929</v>
       </c>
-      <c r="BD7" s="44">
+      <c r="BD7" s="30">
         <f t="shared" si="9"/>
         <v>-19876</v>
       </c>
-      <c r="BE7" s="44">
+      <c r="BE7" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -13349,53 +13378,53 @@
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="20">
         <v>10941</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="20">
         <v>10941</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="20">
         <v>10941</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="20">
         <v>13690</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="20">
         <v>13323</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="20">
         <v>12956</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="20">
         <v>17353</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="20">
         <v>16497</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="20">
         <v>15642</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="20">
         <v>21017</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="20">
         <v>19672</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="20">
         <v>18328</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="20">
         <v>24680</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="20">
         <v>22847</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="21">
         <v>21014</v>
       </c>
-      <c r="W8" s="43" t="s">
-        <v>93</v>
+      <c r="W8" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>16</v>
@@ -13409,123 +13438,123 @@
       <c r="AA8" s="2">
         <v>0.04</v>
       </c>
-      <c r="AB8" s="44">
+      <c r="AB8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="44">
+      <c r="AC8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="44">
+      <c r="AD8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="44">
+      <c r="AE8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="44">
+      <c r="AF8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="44">
+      <c r="AG8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="44">
+      <c r="AH8" s="30">
         <f t="shared" si="2"/>
         <v>-3296</v>
       </c>
-      <c r="AI8" s="44">
+      <c r="AI8" s="30">
         <f t="shared" si="2"/>
         <v>-3827</v>
       </c>
-      <c r="AJ8" s="44">
+      <c r="AJ8" s="30">
         <f t="shared" si="2"/>
         <v>-4820</v>
       </c>
-      <c r="AK8" s="44">
+      <c r="AK8" s="30">
         <f t="shared" si="3"/>
         <v>-3585</v>
       </c>
-      <c r="AL8" s="44">
+      <c r="AL8" s="30">
         <f t="shared" si="3"/>
         <v>-3975</v>
       </c>
-      <c r="AM8" s="44">
+      <c r="AM8" s="30">
         <f t="shared" si="3"/>
         <v>-4365</v>
       </c>
-      <c r="AN8" s="44">
+      <c r="AN8" s="30">
         <f t="shared" si="4"/>
         <v>-7691</v>
       </c>
-      <c r="AO8" s="44">
+      <c r="AO8" s="30">
         <f t="shared" si="4"/>
         <v>-8930</v>
       </c>
-      <c r="AP8" s="44">
+      <c r="AP8" s="30">
         <f t="shared" si="4"/>
         <v>-11247</v>
       </c>
-      <c r="AQ8" s="44">
+      <c r="AQ8" s="30">
         <f t="shared" si="5"/>
         <v>-8366</v>
       </c>
-      <c r="AR8" s="44">
+      <c r="AR8" s="30">
         <f t="shared" si="5"/>
         <v>-9276</v>
       </c>
-      <c r="AS8" s="44">
+      <c r="AS8" s="30">
         <f t="shared" si="5"/>
         <v>-10184</v>
       </c>
-      <c r="AT8" s="44">
+      <c r="AT8" s="30">
         <f t="shared" si="6"/>
         <v>-12086</v>
       </c>
-      <c r="AU8" s="44">
+      <c r="AU8" s="30">
         <f t="shared" si="6"/>
         <v>-14033</v>
       </c>
-      <c r="AV8" s="44">
+      <c r="AV8" s="30">
         <f t="shared" si="6"/>
         <v>-17673</v>
       </c>
-      <c r="AW8" s="44">
+      <c r="AW8" s="30">
         <f t="shared" si="7"/>
         <v>-13148</v>
       </c>
-      <c r="AX8" s="44">
+      <c r="AX8" s="30">
         <f t="shared" si="7"/>
         <v>-14577</v>
       </c>
-      <c r="AY8" s="44">
+      <c r="AY8" s="30">
         <f t="shared" si="7"/>
         <v>-16005</v>
       </c>
-      <c r="AZ8" s="44">
+      <c r="AZ8" s="30">
         <f t="shared" si="8"/>
         <v>-16481</v>
       </c>
-      <c r="BA8" s="44">
+      <c r="BA8" s="30">
         <f t="shared" si="8"/>
         <v>-19136</v>
       </c>
-      <c r="BB8" s="44">
+      <c r="BB8" s="30">
         <f t="shared" si="8"/>
         <v>-24101</v>
       </c>
-      <c r="BC8" s="44">
+      <c r="BC8" s="30">
         <f t="shared" si="9"/>
         <v>-17928</v>
       </c>
-      <c r="BD8" s="44">
+      <c r="BD8" s="30">
         <f t="shared" si="9"/>
         <v>-19877</v>
       </c>
-      <c r="BE8" s="44">
+      <c r="BE8" s="30">
         <f t="shared" si="9"/>
         <v>-21825</v>
       </c>
@@ -13549,49 +13578,49 @@
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="20">
         <v>10941</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="20">
         <v>10941</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="20">
         <v>10941</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="20">
         <v>13980</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="20">
         <v>13613</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="20">
         <v>13247</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="20">
         <v>18030</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="20">
         <v>17175</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="20">
         <v>16319</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="20">
         <v>22081</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="20">
         <v>20737</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="20">
         <v>19392</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="20">
         <v>26132</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="20">
         <v>24299</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="21">
         <v>22466</v>
       </c>
     </row>
@@ -13614,49 +13643,49 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="20">
         <v>10941</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="20">
         <v>10941</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="20">
         <v>10941</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="20">
         <v>14123</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="20">
         <v>13757</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="20">
         <v>13390</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="20">
         <v>18364</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="20">
         <v>17509</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="20">
         <v>16653</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="20">
         <v>22606</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="20">
         <v>21262</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="20">
         <v>19917</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="20">
         <v>26848</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="20">
         <v>25014</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="21">
         <v>23181</v>
       </c>
     </row>
@@ -13679,49 +13708,49 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="22">
         <v>10941</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="22">
         <v>10941</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="22">
         <v>10941</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="22">
         <v>14211</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="22">
         <v>13845</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="22">
         <v>13478</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="22">
         <v>18570</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="22">
         <v>17715</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="22">
         <v>16859</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="22">
         <v>22930</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="22">
         <v>21586</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="22">
         <v>20241</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="22">
         <v>27289</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="22">
         <v>25456</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U11" s="23">
         <v>23623</v>
       </c>
     </row>
@@ -14261,63 +14290,63 @@
       <c r="E20" s="2">
         <v>0.04</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="19">
         <f t="shared" ref="G20:U20" si="10">G12-G4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="19">
         <f t="shared" si="10"/>
         <v>-3296</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="19">
         <f t="shared" si="10"/>
         <v>-3827</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="19">
         <f t="shared" si="10"/>
         <v>-4820</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="19">
         <f t="shared" si="10"/>
         <v>-7691</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="19">
         <f t="shared" si="10"/>
         <v>-8929</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="19">
         <f t="shared" si="10"/>
         <v>-11247</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="19">
         <f t="shared" si="10"/>
         <v>-12086</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="19">
         <f t="shared" si="10"/>
         <v>-14033</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="19">
         <f t="shared" si="10"/>
         <v>-17674</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="19">
         <f t="shared" si="10"/>
         <v>-16480</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="19">
         <f t="shared" si="10"/>
         <v>-19135</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="19">
         <f t="shared" si="10"/>
         <v>-24100</v>
       </c>
@@ -14338,63 +14367,63 @@
       <c r="E21" s="2">
         <v>0.04</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="19">
         <f t="shared" ref="G21:U21" si="11">G13-G5</f>
         <v>0</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="19">
         <f t="shared" si="11"/>
         <v>-3296</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="19">
         <f t="shared" si="11"/>
         <v>-3827</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="19">
         <f t="shared" si="11"/>
         <v>-4820</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="19">
         <f t="shared" si="11"/>
         <v>-7691</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="19">
         <f t="shared" si="11"/>
         <v>-8930</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="19">
         <f t="shared" si="11"/>
         <v>-11247</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="19">
         <f t="shared" si="11"/>
         <v>-12086</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="19">
         <f t="shared" si="11"/>
         <v>-14033</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="19">
         <f t="shared" si="11"/>
         <v>-17674</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="19">
         <f t="shared" si="11"/>
         <v>-16481</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="19">
         <f t="shared" si="11"/>
         <v>-19136</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="19">
         <f t="shared" si="11"/>
         <v>-24101</v>
       </c>
@@ -14415,63 +14444,63 @@
       <c r="E22" s="2">
         <v>0.04</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="19">
         <f t="shared" ref="G22:U22" si="12">G14-G6</f>
         <v>0</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="19">
         <f t="shared" si="12"/>
         <v>-3296</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="19">
         <f t="shared" si="12"/>
         <v>-3827</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="19">
         <f t="shared" si="12"/>
         <v>-4820</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="19">
         <f t="shared" si="12"/>
         <v>-7691</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="19">
         <f t="shared" si="12"/>
         <v>-8930</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="19">
         <f t="shared" si="12"/>
         <v>-11247</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="19">
         <f t="shared" si="12"/>
         <v>-12086</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="19">
         <f t="shared" si="12"/>
         <v>-14033</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="19">
         <f t="shared" si="12"/>
         <v>-17674</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="19">
         <f t="shared" si="12"/>
         <v>-16481</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="19">
         <f t="shared" si="12"/>
         <v>-19135</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="19">
         <f t="shared" si="12"/>
         <v>-24100</v>
       </c>
@@ -14492,63 +14521,63 @@
       <c r="E23" s="2">
         <v>0.04</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="19">
         <f t="shared" ref="G23:U23" si="13">G15-G7</f>
         <v>0</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="19">
         <f t="shared" si="13"/>
         <v>-3296</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="19">
         <f t="shared" si="13"/>
         <v>-3827</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="19">
         <f t="shared" si="13"/>
         <v>-4820</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="19">
         <f t="shared" si="13"/>
         <v>-7691</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="19">
         <f t="shared" si="13"/>
         <v>-8930</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="19">
         <f t="shared" si="13"/>
         <v>-11247</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="19">
         <f t="shared" si="13"/>
         <v>-12086</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="19">
         <f t="shared" si="13"/>
         <v>-14033</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="19">
         <f t="shared" si="13"/>
         <v>-17673</v>
       </c>
-      <c r="S23" s="33">
+      <c r="S23" s="19">
         <f t="shared" si="13"/>
         <v>-16481</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="19">
         <f t="shared" si="13"/>
         <v>-19136</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="19">
         <f t="shared" si="13"/>
         <v>-24101</v>
       </c>
@@ -14569,63 +14598,63 @@
       <c r="E24" s="2">
         <v>0.04</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="19">
         <f t="shared" ref="G24:U24" si="14">G16-G8</f>
         <v>0</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="19">
         <f t="shared" si="14"/>
         <v>-3586</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="19">
         <f t="shared" si="14"/>
         <v>-3975</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="19">
         <f t="shared" si="14"/>
         <v>-4365</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="19">
         <f t="shared" si="14"/>
         <v>-8367</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="19">
         <f t="shared" si="14"/>
         <v>-9275</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="19">
         <f t="shared" si="14"/>
         <v>-10185</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="19">
         <f t="shared" si="14"/>
         <v>-13148</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="19">
         <f t="shared" si="14"/>
         <v>-14576</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="19">
         <f t="shared" si="14"/>
         <v>-16005</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="19">
         <f t="shared" si="14"/>
         <v>-17928</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="19">
         <f t="shared" si="14"/>
         <v>-19876</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="19">
         <f t="shared" si="14"/>
         <v>-21825</v>
       </c>
@@ -14646,63 +14675,63 @@
       <c r="E25" s="2">
         <v>0.04</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="19">
         <f t="shared" ref="G25:U25" si="15">G17-G9</f>
         <v>0</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="19">
         <f t="shared" si="15"/>
         <v>-3586</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="19">
         <f t="shared" si="15"/>
         <v>-3975</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="19">
         <f t="shared" si="15"/>
         <v>-4365</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="19">
         <f t="shared" si="15"/>
         <v>-8366</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="19">
         <f t="shared" si="15"/>
         <v>-9276</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="19">
         <f t="shared" si="15"/>
         <v>-10185</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="19">
         <f t="shared" si="15"/>
         <v>-13148</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="19">
         <f t="shared" si="15"/>
         <v>-14577</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="19">
         <f t="shared" si="15"/>
         <v>-16004</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="19">
         <f t="shared" si="15"/>
         <v>-17929</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="19">
         <f t="shared" si="15"/>
         <v>-19877</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="19">
         <f t="shared" si="15"/>
         <v>-21825</v>
       </c>
@@ -14723,63 +14752,63 @@
       <c r="E26" s="2">
         <v>0.04</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="19">
         <f t="shared" ref="G26:U26" si="16">G18-G10</f>
         <v>0</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="19">
         <f t="shared" si="16"/>
         <v>-3586</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="19">
         <f t="shared" si="16"/>
         <v>-3976</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="19">
         <f t="shared" si="16"/>
         <v>-4365</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="19">
         <f t="shared" si="16"/>
         <v>-8367</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="19">
         <f t="shared" si="16"/>
         <v>-9276</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="19">
         <f t="shared" si="16"/>
         <v>-10185</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="19">
         <f t="shared" si="16"/>
         <v>-13148</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="19">
         <f t="shared" si="16"/>
         <v>-14577</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="19">
         <f t="shared" si="16"/>
         <v>-16005</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="19">
         <f t="shared" si="16"/>
         <v>-17929</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="19">
         <f t="shared" si="16"/>
         <v>-19876</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="19">
         <f t="shared" si="16"/>
         <v>-21825</v>
       </c>
@@ -14800,83 +14829,72 @@
       <c r="E27" s="2">
         <v>0.04</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="19">
         <f t="shared" ref="G27:U27" si="17">G19-G11</f>
         <v>0</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="19">
         <f t="shared" si="17"/>
         <v>-3585</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="19">
         <f t="shared" si="17"/>
         <v>-3975</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="19">
         <f t="shared" si="17"/>
         <v>-4365</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="19">
         <f t="shared" si="17"/>
         <v>-8366</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="19">
         <f t="shared" si="17"/>
         <v>-9276</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="19">
         <f t="shared" si="17"/>
         <v>-10184</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="19">
         <f t="shared" si="17"/>
         <v>-13148</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="19">
         <f t="shared" si="17"/>
         <v>-14577</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="19">
         <f t="shared" si="17"/>
         <v>-16005</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="19">
         <f t="shared" si="17"/>
         <v>-17928</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="19">
         <f t="shared" si="17"/>
         <v>-19877</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="19">
         <f t="shared" si="17"/>
         <v>-21825</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G28" s="33"/>
+      <c r="G28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AT1:AY1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
@@ -14892,6 +14910,17 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="AT1:AY1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14906,8 +14935,8 @@
   </sheetPr>
   <dimension ref="B1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14930,51 +14959,51 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="72"/>
-      <c r="V2" s="83"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="65"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="85"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -15022,7 +15051,7 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
@@ -15038,35 +15067,35 @@
       <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="85"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
+      <c r="H4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="67"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
@@ -15129,59 +15158,59 @@
       <c r="U5" s="5">
         <v>18362</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="37">
         <v>13690</v>
       </c>
-      <c r="X5" s="57">
+      <c r="X5" s="43">
         <f>(K5-K13)/K5*100</f>
         <v>27.778245850535004</v>
       </c>
-      <c r="Y5" s="58">
+      <c r="Y5" s="44">
         <f t="shared" ref="X5:AI12" si="0">(L5-L13)/L5*100</f>
         <v>33.661711672090775</v>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="44">
         <f t="shared" si="0"/>
         <v>46.19513130151428</v>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="44">
         <f t="shared" si="0"/>
         <v>51.738984191052808</v>
       </c>
-      <c r="AB5" s="58">
+      <c r="AB5" s="44">
         <f t="shared" si="0"/>
         <v>65.187239944521508</v>
       </c>
-      <c r="AC5" s="58">
+      <c r="AC5" s="44">
         <f t="shared" si="0"/>
         <v>97.638683913534166</v>
       </c>
-      <c r="AD5" s="58">
+      <c r="AD5" s="44">
         <f t="shared" si="0"/>
         <v>67.657597133579657</v>
       </c>
-      <c r="AE5" s="58">
+      <c r="AE5" s="44">
         <f t="shared" si="0"/>
         <v>87.535870243293829</v>
       </c>
-      <c r="AF5" s="58">
+      <c r="AF5" s="44">
         <f t="shared" si="0"/>
         <v>140.2253252935576</v>
       </c>
-      <c r="AG5" s="58">
+      <c r="AG5" s="44">
         <f t="shared" si="0"/>
         <v>79.007670182166819</v>
       </c>
-      <c r="AH5" s="58">
+      <c r="AH5" s="44">
         <f t="shared" si="0"/>
         <v>104.2152270994445</v>
       </c>
-      <c r="AI5" s="59">
+      <c r="AI5" s="45">
         <f>(V5-V13)/V5*100</f>
         <v>176.0482103725347</v>
       </c>
-      <c r="AJ5" s="74" t="s">
-        <v>95</v>
+      <c r="AJ5" s="69" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -15245,58 +15274,58 @@
       <c r="U6" s="5">
         <v>19331</v>
       </c>
-      <c r="V6" s="51">
+      <c r="V6" s="37">
         <v>14659</v>
       </c>
-      <c r="X6" s="60">
+      <c r="X6" s="46">
         <f t="shared" si="0"/>
         <v>27.331509574732653</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="Y6" s="47">
         <f t="shared" si="0"/>
         <v>33.096947159041775</v>
       </c>
-      <c r="Z6" s="61">
+      <c r="Z6" s="47">
         <f t="shared" si="0"/>
         <v>45.351900639819341</v>
       </c>
-      <c r="AA6" s="61">
+      <c r="AA6" s="47">
         <f t="shared" si="0"/>
         <v>50.21218254227329</v>
       </c>
-      <c r="AB6" s="61">
+      <c r="AB6" s="47">
         <f t="shared" si="0"/>
         <v>63.105080913009679</v>
       </c>
-      <c r="AC6" s="61">
+      <c r="AC6" s="47">
         <f t="shared" si="0"/>
         <v>93.952050789407735</v>
       </c>
-      <c r="AD6" s="61">
+      <c r="AD6" s="47">
         <f t="shared" si="0"/>
         <v>65.072955365315238</v>
       </c>
-      <c r="AE6" s="61">
+      <c r="AE6" s="47">
         <f t="shared" si="0"/>
         <v>83.818170957529418</v>
       </c>
-      <c r="AF6" s="61">
+      <c r="AF6" s="47">
         <f t="shared" si="0"/>
         <v>132.73751408186257</v>
       </c>
-      <c r="AG6" s="61">
+      <c r="AG6" s="47">
         <f t="shared" si="0"/>
         <v>75.495899949608315</v>
       </c>
-      <c r="AH6" s="61">
+      <c r="AH6" s="47">
         <f t="shared" si="0"/>
         <v>98.986084527442969</v>
       </c>
-      <c r="AI6" s="62">
+      <c r="AI6" s="48">
         <f t="shared" si="0"/>
         <v>164.40412033562998</v>
       </c>
-      <c r="AJ6" s="75"/>
+      <c r="AJ6" s="70"/>
     </row>
     <row r="7" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
@@ -15359,58 +15388,58 @@
       <c r="U7" s="5">
         <v>19964</v>
       </c>
-      <c r="V7" s="51">
+      <c r="V7" s="37">
         <v>15292</v>
       </c>
-      <c r="X7" s="60">
+      <c r="X7" s="46">
         <f t="shared" si="0"/>
         <v>27.040774468783329</v>
       </c>
-      <c r="Y7" s="61">
+      <c r="Y7" s="47">
         <f t="shared" si="0"/>
         <v>32.737382378100946</v>
       </c>
-      <c r="Z7" s="61">
+      <c r="Z7" s="47">
         <f t="shared" si="0"/>
         <v>44.816364481636448</v>
       </c>
-      <c r="AA7" s="61">
+      <c r="AA7" s="47">
         <f t="shared" si="0"/>
         <v>49.263387138098899</v>
       </c>
-      <c r="AB7" s="61">
+      <c r="AB7" s="47">
         <f t="shared" si="0"/>
         <v>61.812140928912576</v>
       </c>
-      <c r="AC7" s="61">
+      <c r="AC7" s="47">
         <f t="shared" si="0"/>
         <v>91.692483287135175</v>
       </c>
-      <c r="AD7" s="61">
+      <c r="AD7" s="47">
         <f t="shared" si="0"/>
         <v>63.486893943373431</v>
       </c>
-      <c r="AE7" s="61">
+      <c r="AE7" s="47">
         <f t="shared" si="0"/>
         <v>81.557686718977038</v>
       </c>
-      <c r="AF7" s="61">
+      <c r="AF7" s="47">
         <f t="shared" si="0"/>
         <v>128.26765367588359</v>
       </c>
-      <c r="AG7" s="61">
+      <c r="AG7" s="47">
         <f t="shared" si="0"/>
         <v>73.372807408066947</v>
       </c>
-      <c r="AH7" s="61">
+      <c r="AH7" s="47">
         <f t="shared" si="0"/>
         <v>95.852534562211972</v>
       </c>
-      <c r="AI7" s="62">
+      <c r="AI7" s="48">
         <f t="shared" si="0"/>
         <v>157.60528380852733</v>
       </c>
-      <c r="AJ7" s="75"/>
+      <c r="AJ7" s="70"/>
     </row>
     <row r="8" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
@@ -15473,58 +15502,58 @@
       <c r="U8" s="5">
         <v>20194</v>
       </c>
-      <c r="V8" s="51">
+      <c r="V8" s="37">
         <v>15522</v>
       </c>
-      <c r="X8" s="60">
+      <c r="X8" s="46">
         <f t="shared" si="0"/>
         <v>26.939109113199837</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="47">
         <f t="shared" si="0"/>
         <v>32.609066121336063</v>
       </c>
-      <c r="Z8" s="61">
+      <c r="Z8" s="47">
         <f t="shared" si="0"/>
         <v>44.625497639107493</v>
       </c>
-      <c r="AA8" s="61">
+      <c r="AA8" s="47">
         <f t="shared" si="0"/>
         <v>48.924936386768451</v>
       </c>
-      <c r="AB8" s="61">
+      <c r="AB8" s="47">
         <f t="shared" si="0"/>
         <v>61.357702349869449</v>
       </c>
-      <c r="AC8" s="61">
+      <c r="AC8" s="47">
         <f t="shared" si="0"/>
         <v>90.892193308550191</v>
       </c>
-      <c r="AD8" s="61">
+      <c r="AD8" s="47">
         <f t="shared" si="0"/>
         <v>62.928251588045406</v>
       </c>
-      <c r="AE8" s="61">
+      <c r="AE8" s="47">
         <f t="shared" si="0"/>
         <v>80.770116265684351</v>
       </c>
-      <c r="AF8" s="61">
+      <c r="AF8" s="47">
         <f t="shared" si="0"/>
         <v>126.7135073128764</v>
       </c>
-      <c r="AG8" s="61">
+      <c r="AG8" s="47">
         <f t="shared" si="0"/>
         <v>72.624713555438035</v>
       </c>
-      <c r="AH8" s="61">
+      <c r="AH8" s="47">
         <f t="shared" si="0"/>
         <v>94.755868079627618</v>
       </c>
-      <c r="AI8" s="62">
+      <c r="AI8" s="48">
         <f t="shared" si="0"/>
         <v>155.26349697203969</v>
       </c>
-      <c r="AJ8" s="75"/>
+      <c r="AJ8" s="70"/>
     </row>
     <row r="9" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
@@ -15587,58 +15616,58 @@
       <c r="U9" s="5">
         <v>21526</v>
       </c>
-      <c r="V9" s="51">
+      <c r="V9" s="37">
         <v>19693</v>
       </c>
-      <c r="X9" s="60">
+      <c r="X9" s="46">
         <f t="shared" si="0"/>
         <v>28.994178525226388</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="47">
         <f t="shared" si="0"/>
         <v>33.122239813348884</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="47">
         <f t="shared" si="0"/>
         <v>37.516115169746456</v>
       </c>
-      <c r="AA9" s="61">
+      <c r="AA9" s="47">
         <f t="shared" si="0"/>
         <v>52.186388871561348</v>
       </c>
-      <c r="AB9" s="61">
+      <c r="AB9" s="47">
         <f t="shared" si="0"/>
         <v>61.122825513969424</v>
       </c>
-      <c r="AC9" s="61">
+      <c r="AC9" s="47">
         <f t="shared" si="0"/>
         <v>71.124301675977648</v>
       </c>
-      <c r="AD9" s="61">
+      <c r="AD9" s="47">
         <f t="shared" si="0"/>
         <v>66.758060421426762</v>
       </c>
-      <c r="AE9" s="61">
+      <c r="AE9" s="47">
         <f t="shared" si="0"/>
         <v>79.434363249959134</v>
       </c>
-      <c r="AF9" s="61">
+      <c r="AF9" s="47">
         <f t="shared" si="0"/>
         <v>94.107961895801481</v>
       </c>
-      <c r="AG9" s="61">
+      <c r="AG9" s="47">
         <f t="shared" si="0"/>
         <v>76.754141872511667</v>
       </c>
-      <c r="AH9" s="61">
+      <c r="AH9" s="47">
         <f t="shared" si="0"/>
         <v>92.339496422930409</v>
       </c>
-      <c r="AI9" s="62">
+      <c r="AI9" s="48">
         <f t="shared" si="0"/>
         <v>110.82618189204285</v>
       </c>
-      <c r="AJ9" s="75"/>
+      <c r="AJ9" s="70"/>
     </row>
     <row r="10" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
@@ -15701,58 +15730,58 @@
       <c r="U10" s="5">
         <v>22977</v>
       </c>
-      <c r="V10" s="51">
+      <c r="V10" s="37">
         <v>21144</v>
       </c>
-      <c r="X10" s="60">
+      <c r="X10" s="46">
         <f t="shared" si="0"/>
         <v>28.322009796176328</v>
       </c>
-      <c r="Y10" s="61">
+      <c r="Y10" s="47">
         <f t="shared" si="0"/>
         <v>32.346241457858774</v>
       </c>
-      <c r="Z10" s="61">
+      <c r="Z10" s="47">
         <f t="shared" si="0"/>
         <v>36.60377358490566</v>
       </c>
-      <c r="AA10" s="61">
+      <c r="AA10" s="47">
         <f t="shared" si="0"/>
         <v>50.074809982644084</v>
       </c>
-      <c r="AB10" s="61">
+      <c r="AB10" s="47">
         <f t="shared" si="0"/>
         <v>58.512584368889165</v>
       </c>
-      <c r="AC10" s="61">
+      <c r="AC10" s="47">
         <f t="shared" si="0"/>
         <v>67.909054540605425</v>
       </c>
-      <c r="AD10" s="61">
+      <c r="AD10" s="47">
         <f t="shared" si="0"/>
         <v>63.333333333333329</v>
       </c>
-      <c r="AE10" s="61">
+      <c r="AE10" s="47">
         <f t="shared" si="0"/>
         <v>75.075972186453782</v>
       </c>
-      <c r="AF10" s="61">
+      <c r="AF10" s="47">
         <f t="shared" si="0"/>
         <v>88.567317802003203</v>
       </c>
-      <c r="AG10" s="61">
+      <c r="AG10" s="47">
         <f t="shared" si="0"/>
         <v>72.261185006045949</v>
       </c>
-      <c r="AH10" s="61">
+      <c r="AH10" s="47">
         <f t="shared" si="0"/>
         <v>86.508247377812594</v>
       </c>
-      <c r="AI10" s="62">
+      <c r="AI10" s="48">
         <f t="shared" si="0"/>
         <v>103.22077185017027</v>
       </c>
-      <c r="AJ10" s="75"/>
+      <c r="AJ10" s="70"/>
     </row>
     <row r="11" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -15815,58 +15844,58 @@
       <c r="U11" s="5">
         <v>23693</v>
       </c>
-      <c r="V11" s="51">
+      <c r="V11" s="37">
         <v>21860</v>
       </c>
-      <c r="X11" s="60">
+      <c r="X11" s="46">
         <f t="shared" si="0"/>
         <v>28.011248242462116</v>
       </c>
-      <c r="Y11" s="61">
+      <c r="Y11" s="47">
         <f t="shared" si="0"/>
         <v>31.966224366706875</v>
       </c>
-      <c r="Z11" s="61">
+      <c r="Z11" s="47">
         <f t="shared" si="0"/>
         <v>36.170036460059663</v>
       </c>
-      <c r="AA11" s="61">
+      <c r="AA11" s="47">
         <f t="shared" si="0"/>
         <v>49.093469459602183</v>
       </c>
-      <c r="AB11" s="61">
+      <c r="AB11" s="47">
         <f t="shared" si="0"/>
         <v>57.305244949650955</v>
       </c>
-      <c r="AC11" s="61">
+      <c r="AC11" s="47">
         <f t="shared" si="0"/>
         <v>66.429689538220714</v>
       </c>
-      <c r="AD11" s="61">
+      <c r="AD11" s="47">
         <f t="shared" si="0"/>
         <v>61.769404247321937</v>
       </c>
-      <c r="AE11" s="61">
+      <c r="AE11" s="47">
         <f t="shared" si="0"/>
         <v>73.099297893681054</v>
       </c>
-      <c r="AF11" s="61">
+      <c r="AF11" s="47">
         <f t="shared" si="0"/>
         <v>86.066896106689612</v>
       </c>
-      <c r="AG11" s="61">
+      <c r="AG11" s="47">
         <f t="shared" si="0"/>
         <v>70.238188513672341</v>
       </c>
-      <c r="AH11" s="61">
+      <c r="AH11" s="47">
         <f t="shared" si="0"/>
         <v>83.893977124045065</v>
       </c>
-      <c r="AI11" s="62">
+      <c r="AI11" s="48">
         <f t="shared" si="0"/>
         <v>99.839890210429999</v>
       </c>
-      <c r="AJ11" s="75"/>
+      <c r="AJ11" s="70"/>
     </row>
     <row r="12" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
@@ -15929,58 +15958,58 @@
       <c r="U12" s="7">
         <v>24135</v>
       </c>
-      <c r="V12" s="52">
+      <c r="V12" s="38">
         <v>22301</v>
       </c>
-      <c r="X12" s="63">
+      <c r="X12" s="49">
         <f t="shared" si="0"/>
         <v>27.820015515903801</v>
       </c>
-      <c r="Y12" s="64">
+      <c r="Y12" s="50">
         <f t="shared" si="0"/>
         <v>31.741595464345608</v>
       </c>
-      <c r="Z12" s="64">
+      <c r="Z12" s="50">
         <f t="shared" si="0"/>
         <v>35.905239779550875</v>
       </c>
-      <c r="AA12" s="64">
+      <c r="AA12" s="50">
         <f t="shared" si="0"/>
         <v>48.507159835352773</v>
       </c>
-      <c r="AB12" s="64">
+      <c r="AB12" s="50">
         <f t="shared" si="0"/>
         <v>56.579027633746115</v>
       </c>
-      <c r="AC12" s="64">
+      <c r="AC12" s="50">
         <f t="shared" si="0"/>
         <v>65.548976702278281</v>
       </c>
-      <c r="AD12" s="64">
+      <c r="AD12" s="50">
         <f t="shared" si="0"/>
         <v>60.843206219918542</v>
       </c>
-      <c r="AE12" s="64">
+      <c r="AE12" s="50">
         <f t="shared" si="0"/>
         <v>71.930517173312282</v>
       </c>
-      <c r="AF12" s="64">
+      <c r="AF12" s="50">
         <f t="shared" si="0"/>
         <v>84.593023255813947</v>
       </c>
-      <c r="AG12" s="64">
+      <c r="AG12" s="50">
         <f t="shared" si="0"/>
         <v>69.042667898952558</v>
       </c>
-      <c r="AH12" s="64">
+      <c r="AH12" s="50">
         <f t="shared" si="0"/>
         <v>82.357571990884608</v>
       </c>
-      <c r="AI12" s="65">
+      <c r="AI12" s="51">
         <f t="shared" si="0"/>
         <v>97.861082462669842</v>
       </c>
-      <c r="AJ12" s="76"/>
+      <c r="AJ12" s="71"/>
     </row>
     <row r="13" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
@@ -16043,22 +16072,22 @@
       <c r="U13" s="5">
         <v>-774</v>
       </c>
-      <c r="V13" s="51">
+      <c r="V13" s="37">
         <v>-10411</v>
       </c>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="73"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="68"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
@@ -16121,22 +16150,22 @@
       <c r="U14" s="5">
         <v>196</v>
       </c>
-      <c r="V14" s="51">
+      <c r="V14" s="37">
         <v>-9441</v>
       </c>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="73"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="68"/>
     </row>
     <row r="15" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
@@ -16199,22 +16228,22 @@
       <c r="U15" s="5">
         <v>828</v>
       </c>
-      <c r="V15" s="51">
+      <c r="V15" s="37">
         <v>-8809</v>
       </c>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="73"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="68"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
@@ -16277,22 +16306,22 @@
       <c r="U16" s="5">
         <v>1059</v>
       </c>
-      <c r="V16" s="51">
+      <c r="V16" s="37">
         <v>-8578</v>
       </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="73"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -16355,22 +16384,22 @@
       <c r="U17" s="5">
         <v>1649</v>
       </c>
-      <c r="V17" s="51">
+      <c r="V17" s="37">
         <v>-2132</v>
       </c>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="73"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="68"/>
     </row>
     <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -16433,22 +16462,22 @@
       <c r="U18" s="5">
         <v>3100</v>
       </c>
-      <c r="V18" s="51">
+      <c r="V18" s="37">
         <v>-681</v>
       </c>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="73"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="68"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -16511,22 +16540,22 @@
       <c r="U19" s="5">
         <v>3816</v>
       </c>
-      <c r="V19" s="51">
+      <c r="V19" s="37">
         <v>35</v>
       </c>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="73"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="68"/>
     </row>
     <row r="20" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
@@ -16547,137 +16576,137 @@
       <c r="G20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="39">
         <v>9619</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="39">
         <v>9619</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="39">
         <v>9619</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="39">
         <v>9304</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="39">
         <v>8548</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="39">
         <v>7792</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="39">
         <v>8882</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="39">
         <v>7118</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="39">
         <v>5353</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="39">
         <v>8461</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="39">
         <v>5688</v>
       </c>
-      <c r="S20" s="53">
+      <c r="S20" s="39">
         <v>2915</v>
       </c>
-      <c r="T20" s="53">
+      <c r="T20" s="39">
         <v>8039</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="39">
         <v>4258</v>
       </c>
-      <c r="V20" s="54">
+      <c r="V20" s="40">
         <v>477</v>
       </c>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="73"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="68"/>
     </row>
     <row r="21" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
     </row>
     <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72" t="s">
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72" t="s">
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72" t="s">
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72" t="s">
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="72"/>
-      <c r="V22" s="83"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="65"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
     </row>
     <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="85"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -16723,21 +16752,21 @@
       <c r="V23" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
     </row>
     <row r="24" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
@@ -16753,35 +16782,35 @@
       <c r="G24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="85"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
+      <c r="H24" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="67"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
     </row>
     <row r="25" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
@@ -16802,101 +16831,101 @@
       <c r="G25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="20">
         <v>10941</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="20">
         <v>10941</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="20">
         <v>10941</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="20">
         <v>13190</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="20">
         <v>12690</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="20">
         <v>11756</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="20">
         <v>16186</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="20">
         <v>15020</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="20">
         <v>12840</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="20">
         <v>19184</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="20">
         <v>17352</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25" s="20">
         <v>13926</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="20">
         <v>22181</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="20">
         <v>19683</v>
       </c>
-      <c r="V25" s="55">
+      <c r="V25" s="41">
         <v>15011</v>
       </c>
-      <c r="X25" s="57">
+      <c r="X25" s="43">
         <f>(K25-K33)/K25*100</f>
         <v>24.988627748294164</v>
       </c>
-      <c r="Y25" s="58">
+      <c r="Y25" s="44">
         <f t="shared" ref="Y25:AI25" si="1">(L25-L33)/L25*100</f>
         <v>30.157604412923561</v>
       </c>
-      <c r="Z25" s="58">
+      <c r="Z25" s="44">
         <f t="shared" si="1"/>
         <v>41.000340251786319</v>
       </c>
-      <c r="AA25" s="58">
+      <c r="AA25" s="44">
         <f t="shared" si="1"/>
         <v>47.516372173483255</v>
       </c>
-      <c r="AB25" s="58">
+      <c r="AB25" s="44">
         <f t="shared" si="1"/>
         <v>59.447403462050595</v>
       </c>
-      <c r="AC25" s="58">
+      <c r="AC25" s="44">
         <f t="shared" si="1"/>
         <v>87.59345794392523</v>
       </c>
-      <c r="AD25" s="58">
+      <c r="AD25" s="44">
         <f t="shared" si="1"/>
         <v>63.000417014178481</v>
       </c>
-      <c r="AE25" s="58">
+      <c r="AE25" s="44">
         <f t="shared" si="1"/>
         <v>80.872521899492853</v>
       </c>
-      <c r="AF25" s="58">
+      <c r="AF25" s="44">
         <f t="shared" si="1"/>
         <v>126.91368662932645</v>
       </c>
-      <c r="AG25" s="58">
+      <c r="AG25" s="44">
         <f t="shared" si="1"/>
         <v>74.297822460664534</v>
       </c>
-      <c r="AH25" s="58">
+      <c r="AH25" s="44">
         <f t="shared" si="1"/>
         <v>97.215871564294062</v>
       </c>
-      <c r="AI25" s="59">
+      <c r="AI25" s="45">
         <f t="shared" si="1"/>
         <v>160.54893078409168</v>
       </c>
-      <c r="AJ25" s="74" t="s">
-        <v>95</v>
+      <c r="AJ25" s="69" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -16918,100 +16947,100 @@
       <c r="G26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="20">
         <v>10941</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="20">
         <v>10941</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="20">
         <v>10941</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="20">
         <v>13384</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="20">
         <v>12884</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="20">
         <v>11950</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="20">
         <v>16639</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="20">
         <v>15473</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="20">
         <v>13293</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="20">
         <v>19895</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="20">
         <v>18063</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="20">
         <v>14637</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="20">
         <v>23151</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26" s="20">
         <v>20653</v>
       </c>
-      <c r="V26" s="55">
+      <c r="V26" s="41">
         <v>15981</v>
       </c>
-      <c r="X26" s="60">
+      <c r="X26" s="46">
         <f t="shared" ref="X26:X32" si="2">(K26-K34)/K26*100</f>
         <v>24.626419605499102</v>
       </c>
-      <c r="Y26" s="61">
+      <c r="Y26" s="47">
         <f t="shared" ref="Y26:Y32" si="3">(L26-L34)/L26*100</f>
         <v>29.703508227258613</v>
       </c>
-      <c r="Z26" s="61">
+      <c r="Z26" s="47">
         <f t="shared" ref="Z26:Z31" si="4">(M26-M34)/M26*100</f>
         <v>40.334728033472807</v>
       </c>
-      <c r="AA26" s="61">
+      <c r="AA26" s="47">
         <f t="shared" ref="AA26:AA32" si="5">(N26-N34)/N26*100</f>
         <v>46.222729731354043</v>
       </c>
-      <c r="AB26" s="61">
+      <c r="AB26" s="47">
         <f t="shared" ref="AB26:AB32" si="6">(O26-O34)/O26*100</f>
         <v>57.713436308408191</v>
       </c>
-      <c r="AC26" s="61">
+      <c r="AC26" s="47">
         <f t="shared" ref="AC26:AC32" si="7">(P26-P34)/P26*100</f>
         <v>84.608440532611155</v>
       </c>
-      <c r="AD26" s="61">
+      <c r="AD26" s="47">
         <f t="shared" ref="AD26:AD32" si="8">(Q26-Q34)/Q26*100</f>
         <v>60.748931892435287</v>
       </c>
-      <c r="AE26" s="61">
+      <c r="AE26" s="47">
         <f t="shared" ref="AE26:AE32" si="9">(R26-R34)/R26*100</f>
         <v>77.689198914908928</v>
       </c>
-      <c r="AF26" s="61">
+      <c r="AF26" s="47">
         <f t="shared" ref="AF26:AF32" si="10">(S26-S34)/S26*100</f>
         <v>120.74878731980596</v>
       </c>
-      <c r="AG26" s="61">
+      <c r="AG26" s="47">
         <f t="shared" ref="AG26:AG32" si="11">(T26-T34)/T26*100</f>
         <v>71.189149496781994</v>
       </c>
-      <c r="AH26" s="61">
+      <c r="AH26" s="47">
         <f t="shared" ref="AH26:AH32" si="12">(U26-U34)/U26*100</f>
         <v>92.654820122984546</v>
       </c>
-      <c r="AI26" s="62">
+      <c r="AI26" s="48">
         <f t="shared" ref="AI26:AI32" si="13">(V26-V34)/V26*100</f>
         <v>150.81033727551468</v>
       </c>
-      <c r="AJ26" s="75"/>
+      <c r="AJ26" s="70"/>
     </row>
     <row r="27" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -17032,100 +17061,100 @@
       <c r="G27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="20">
         <v>10941</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="20">
         <v>10941</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="20">
         <v>10941</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="20">
         <v>13511</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="20">
         <v>13011</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="20">
         <v>12077</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="20">
         <v>16934</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="20">
         <v>15768</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="20">
         <v>13588</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="20">
         <v>20359</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="20">
         <v>18527</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="20">
         <v>15101</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="20">
         <v>23784</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="20">
         <v>21285</v>
       </c>
-      <c r="V27" s="55">
+      <c r="V27" s="41">
         <v>16613</v>
       </c>
-      <c r="X27" s="60">
+      <c r="X27" s="46">
         <f t="shared" si="2"/>
         <v>24.394937458367256</v>
       </c>
-      <c r="Y27" s="61">
+      <c r="Y27" s="47">
         <f t="shared" si="3"/>
         <v>29.413573130428102</v>
       </c>
-      <c r="Z27" s="61">
+      <c r="Z27" s="47">
         <f t="shared" si="4"/>
         <v>39.910573818001161</v>
       </c>
-      <c r="AA27" s="61">
+      <c r="AA27" s="47">
         <f t="shared" si="5"/>
         <v>45.417503247903625</v>
       </c>
-      <c r="AB27" s="61">
+      <c r="AB27" s="47">
         <f t="shared" si="6"/>
         <v>56.633688483003553</v>
       </c>
-      <c r="AC27" s="61">
+      <c r="AC27" s="47">
         <f t="shared" si="7"/>
         <v>82.771563143950544</v>
       </c>
-      <c r="AD27" s="61">
+      <c r="AD27" s="47">
         <f t="shared" si="8"/>
         <v>59.364408860946014</v>
       </c>
-      <c r="AE27" s="61">
+      <c r="AE27" s="47">
         <f t="shared" si="9"/>
         <v>75.743509472661515</v>
       </c>
-      <c r="AF27" s="61">
+      <c r="AF27" s="47">
         <f t="shared" si="10"/>
         <v>117.03860671478709</v>
       </c>
-      <c r="AG27" s="61">
+      <c r="AG27" s="47">
         <f t="shared" si="11"/>
         <v>69.294483686511938</v>
       </c>
-      <c r="AH27" s="61">
+      <c r="AH27" s="47">
         <f t="shared" si="12"/>
         <v>89.898989898989896</v>
       </c>
-      <c r="AI27" s="62">
+      <c r="AI27" s="48">
         <f t="shared" si="13"/>
         <v>145.06711611388673</v>
       </c>
-      <c r="AJ27" s="75"/>
+      <c r="AJ27" s="70"/>
     </row>
     <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -17146,100 +17175,100 @@
       <c r="G28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="20">
         <v>10941</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="20">
         <v>10941</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="20">
         <v>10941</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="20">
         <v>13557</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="20">
         <v>13057</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="20">
         <v>12123</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="20">
         <v>17042</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="20">
         <v>15876</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="20">
         <v>13695</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="20">
         <v>20528</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="20">
         <v>18696</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="20">
         <v>15269</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="20">
         <v>24014</v>
       </c>
-      <c r="U28" s="34">
+      <c r="U28" s="20">
         <v>21516</v>
       </c>
-      <c r="V28" s="55">
+      <c r="V28" s="41">
         <v>16844</v>
       </c>
-      <c r="X28" s="60">
+      <c r="X28" s="46">
         <f t="shared" si="2"/>
         <v>24.312163457992181</v>
       </c>
-      <c r="Y28" s="61">
+      <c r="Y28" s="47">
         <f t="shared" si="3"/>
         <v>29.309948686528298</v>
       </c>
-      <c r="Z28" s="61">
+      <c r="Z28" s="47">
         <f t="shared" si="4"/>
         <v>39.759135527509692</v>
       </c>
-      <c r="AA28" s="61">
+      <c r="AA28" s="47">
         <f t="shared" si="5"/>
         <v>45.129679615068653</v>
       </c>
-      <c r="AB28" s="61">
+      <c r="AB28" s="47">
         <f t="shared" si="6"/>
         <v>56.248425296044346</v>
       </c>
-      <c r="AC28" s="61">
+      <c r="AC28" s="47">
         <f t="shared" si="7"/>
         <v>82.124863088718513</v>
       </c>
-      <c r="AD28" s="61">
+      <c r="AD28" s="47">
         <f t="shared" si="8"/>
         <v>58.875681995323461</v>
       </c>
-      <c r="AE28" s="61">
+      <c r="AE28" s="47">
         <f t="shared" si="9"/>
         <v>75.058836114676936</v>
       </c>
-      <c r="AF28" s="61">
+      <c r="AF28" s="47">
         <f t="shared" si="10"/>
         <v>115.74431855393281</v>
       </c>
-      <c r="AG28" s="61">
+      <c r="AG28" s="47">
         <f t="shared" si="11"/>
         <v>68.630798700757893</v>
       </c>
-      <c r="AH28" s="61">
+      <c r="AH28" s="47">
         <f t="shared" si="12"/>
         <v>88.938464398587101</v>
       </c>
-      <c r="AI28" s="62">
+      <c r="AI28" s="48">
         <f t="shared" si="13"/>
         <v>143.08359059605795</v>
       </c>
-      <c r="AJ28" s="75"/>
+      <c r="AJ28" s="70"/>
     </row>
     <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -17260,100 +17289,100 @@
       <c r="G29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="20">
         <v>10941</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="20">
         <v>10941</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="20">
         <v>10941</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="20">
         <v>13690</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="20">
         <v>13323</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="20">
         <v>12956</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29" s="20">
         <v>17353</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="20">
         <v>16497</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="20">
         <v>15642</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="20">
         <v>21017</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="20">
         <v>19672</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="20">
         <v>18328</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29" s="20">
         <v>24680</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29" s="20">
         <v>22847</v>
       </c>
-      <c r="V29" s="55">
+      <c r="V29" s="41">
         <v>21014</v>
       </c>
-      <c r="X29" s="60">
+      <c r="X29" s="46">
         <f t="shared" si="2"/>
         <v>26.194302410518628</v>
       </c>
-      <c r="Y29" s="61">
+      <c r="Y29" s="47">
         <f t="shared" si="3"/>
         <v>29.835622607520829</v>
       </c>
-      <c r="Z29" s="61">
+      <c r="Z29" s="47">
         <f t="shared" si="4"/>
         <v>33.690953998147577</v>
       </c>
-      <c r="AA29" s="61">
+      <c r="AA29" s="47">
         <f t="shared" si="5"/>
         <v>48.216446723909414</v>
       </c>
-      <c r="AB29" s="61">
+      <c r="AB29" s="47">
         <f t="shared" si="6"/>
         <v>56.222343456386014</v>
       </c>
-      <c r="AC29" s="61">
+      <c r="AC29" s="47">
         <f t="shared" si="7"/>
         <v>65.113156885308783</v>
       </c>
-      <c r="AD29" s="61">
+      <c r="AD29" s="47">
         <f t="shared" si="8"/>
         <v>62.558880905933293</v>
       </c>
-      <c r="AE29" s="61">
+      <c r="AE29" s="47">
         <f t="shared" si="9"/>
         <v>74.095160634404237</v>
       </c>
-      <c r="AF29" s="61">
+      <c r="AF29" s="47">
         <f t="shared" si="10"/>
         <v>87.325403753819302</v>
       </c>
-      <c r="AG29" s="61">
+      <c r="AG29" s="47">
         <f t="shared" si="11"/>
         <v>72.641815235008096</v>
       </c>
-      <c r="AH29" s="61">
+      <c r="AH29" s="47">
         <f t="shared" si="12"/>
         <v>86.996104521381369</v>
       </c>
-      <c r="AI29" s="62">
+      <c r="AI29" s="48">
         <f t="shared" si="13"/>
         <v>103.85933187398876</v>
       </c>
-      <c r="AJ29" s="75"/>
+      <c r="AJ29" s="70"/>
     </row>
     <row r="30" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -17374,100 +17403,100 @@
       <c r="G30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="20">
         <v>10941</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="20">
         <v>10941</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="20">
         <v>10941</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="20">
         <v>13980</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="20">
         <v>13613</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="20">
         <v>13247</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="20">
         <v>18030</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="20">
         <v>17175</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="20">
         <v>16319</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="20">
         <v>22081</v>
       </c>
-      <c r="R30" s="34">
+      <c r="R30" s="20">
         <v>20737</v>
       </c>
-      <c r="S30" s="34">
+      <c r="S30" s="20">
         <v>19392</v>
       </c>
-      <c r="T30" s="34">
+      <c r="T30" s="20">
         <v>26132</v>
       </c>
-      <c r="U30" s="34">
+      <c r="U30" s="20">
         <v>24299</v>
       </c>
-      <c r="V30" s="55">
+      <c r="V30" s="41">
         <v>22466</v>
       </c>
-      <c r="X30" s="60">
+      <c r="X30" s="46">
         <f t="shared" si="2"/>
         <v>25.650929899856941</v>
       </c>
-      <c r="Y30" s="61">
+      <c r="Y30" s="47">
         <f t="shared" si="3"/>
         <v>29.200029383677368</v>
       </c>
-      <c r="Z30" s="61">
+      <c r="Z30" s="47">
         <f t="shared" si="4"/>
         <v>32.950856797765532</v>
       </c>
-      <c r="AA30" s="61">
+      <c r="AA30" s="47">
         <f t="shared" si="5"/>
         <v>46.400443704936215</v>
       </c>
-      <c r="AB30" s="61">
+      <c r="AB30" s="47">
         <f t="shared" si="6"/>
         <v>54.008733624454152</v>
       </c>
-      <c r="AC30" s="61">
+      <c r="AC30" s="47">
         <f t="shared" si="7"/>
         <v>62.411912494638159</v>
       </c>
-      <c r="AD30" s="61">
+      <c r="AD30" s="47">
         <f t="shared" si="8"/>
         <v>59.544404691816496</v>
       </c>
-      <c r="AE30" s="61">
+      <c r="AE30" s="47">
         <f t="shared" si="9"/>
         <v>70.294642426580509</v>
       </c>
-      <c r="AF30" s="61">
+      <c r="AF30" s="47">
         <f t="shared" si="10"/>
         <v>82.528877887788781</v>
       </c>
-      <c r="AG30" s="61">
+      <c r="AG30" s="47">
         <f t="shared" si="11"/>
         <v>68.60936782488902</v>
       </c>
-      <c r="AH30" s="61">
+      <c r="AH30" s="47">
         <f t="shared" si="12"/>
         <v>81.801720235400637</v>
       </c>
-      <c r="AI30" s="62">
+      <c r="AI30" s="48">
         <f t="shared" si="13"/>
         <v>97.146799608296988</v>
       </c>
-      <c r="AJ30" s="75"/>
+      <c r="AJ30" s="70"/>
     </row>
     <row r="31" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -17488,100 +17517,100 @@
       <c r="G31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="20">
         <v>10941</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="20">
         <v>10941</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="20">
         <v>10941</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="20">
         <v>14123</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="20">
         <v>13757</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="20">
         <v>13390</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="20">
         <v>18364</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="20">
         <v>17509</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="20">
         <v>16653</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="20">
         <v>22606</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="20">
         <v>21262</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="20">
         <v>19917</v>
       </c>
-      <c r="T31" s="34">
+      <c r="T31" s="20">
         <v>26848</v>
       </c>
-      <c r="U31" s="34">
+      <c r="U31" s="20">
         <v>25014</v>
       </c>
-      <c r="V31" s="55">
+      <c r="V31" s="41">
         <v>23181</v>
       </c>
-      <c r="X31" s="60">
+      <c r="X31" s="46">
         <f t="shared" si="2"/>
         <v>25.391205834454432</v>
       </c>
-      <c r="Y31" s="61">
+      <c r="Y31" s="47">
         <f t="shared" si="3"/>
         <v>28.901650069055751</v>
       </c>
-      <c r="Z31" s="61">
+      <c r="Z31" s="47">
         <f t="shared" si="4"/>
         <v>32.598954443614637</v>
       </c>
-      <c r="AA31" s="61">
+      <c r="AA31" s="47">
         <f t="shared" si="5"/>
         <v>45.561969069919407</v>
       </c>
-      <c r="AB31" s="61">
+      <c r="AB31" s="47">
         <f t="shared" si="6"/>
         <v>52.978468216345874</v>
       </c>
-      <c r="AC31" s="61">
+      <c r="AC31" s="47">
         <f t="shared" si="7"/>
         <v>61.160151324085753</v>
       </c>
-      <c r="AD31" s="61">
+      <c r="AD31" s="47">
         <f t="shared" si="8"/>
         <v>58.161550030965223</v>
       </c>
-      <c r="AE31" s="61">
+      <c r="AE31" s="47">
         <f t="shared" si="9"/>
         <v>68.558931426958893</v>
       </c>
-      <c r="AF31" s="61">
+      <c r="AF31" s="47">
         <f t="shared" si="10"/>
         <v>80.358487724054825</v>
       </c>
-      <c r="AG31" s="61">
+      <c r="AG31" s="47">
         <f t="shared" si="11"/>
         <v>66.779648390941588</v>
       </c>
-      <c r="AH31" s="61">
+      <c r="AH31" s="47">
         <f t="shared" si="12"/>
         <v>79.459502678500044</v>
       </c>
-      <c r="AI31" s="62">
+      <c r="AI31" s="48">
         <f t="shared" si="13"/>
         <v>94.150381778180403</v>
       </c>
-      <c r="AJ31" s="75"/>
+      <c r="AJ31" s="70"/>
     </row>
     <row r="32" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -17602,100 +17631,100 @@
       <c r="G32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="22">
         <v>10941</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="22">
         <v>10941</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="22">
         <v>10941</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="22">
         <v>14211</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="22">
         <v>13845</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="22">
         <v>13478</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="22">
         <v>18570</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="22">
         <v>17715</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="22">
         <v>16859</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="22">
         <v>22930</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="22">
         <v>21586</v>
       </c>
-      <c r="S32" s="36">
+      <c r="S32" s="22">
         <v>20241</v>
       </c>
-      <c r="T32" s="36">
+      <c r="T32" s="22">
         <v>27289</v>
       </c>
-      <c r="U32" s="36">
+      <c r="U32" s="22">
         <v>25456</v>
       </c>
-      <c r="V32" s="56">
+      <c r="V32" s="42">
         <v>23623</v>
       </c>
-      <c r="X32" s="63">
+      <c r="X32" s="49">
         <f t="shared" si="2"/>
         <v>25.226936879881784</v>
       </c>
-      <c r="Y32" s="64">
+      <c r="Y32" s="50">
         <f t="shared" si="3"/>
         <v>28.710725893824485</v>
       </c>
-      <c r="Z32" s="64">
+      <c r="Z32" s="50">
         <f>(M32-M40)/M32*100</f>
         <v>32.386110698916752</v>
       </c>
-      <c r="AA32" s="64">
+      <c r="AA32" s="50">
         <f t="shared" si="5"/>
         <v>45.051157781367799</v>
       </c>
-      <c r="AB32" s="64">
+      <c r="AB32" s="50">
         <f t="shared" si="6"/>
         <v>52.362404741744285</v>
       </c>
-      <c r="AC32" s="64">
+      <c r="AC32" s="50">
         <f t="shared" si="7"/>
         <v>60.406904324099884</v>
       </c>
-      <c r="AD32" s="64">
+      <c r="AD32" s="50">
         <f t="shared" si="8"/>
         <v>57.33972961186219</v>
       </c>
-      <c r="AE32" s="64">
+      <c r="AE32" s="50">
         <f t="shared" si="9"/>
         <v>67.529880478087648</v>
       </c>
-      <c r="AF32" s="64">
+      <c r="AF32" s="50">
         <f t="shared" si="10"/>
         <v>79.072180228249593</v>
       </c>
-      <c r="AG32" s="64">
+      <c r="AG32" s="50">
         <f t="shared" si="11"/>
         <v>65.69680090879109</v>
       </c>
-      <c r="AH32" s="64">
+      <c r="AH32" s="50">
         <f t="shared" si="12"/>
         <v>78.08375235700818</v>
       </c>
-      <c r="AI32" s="65">
+      <c r="AI32" s="51">
         <f t="shared" si="13"/>
         <v>92.388773652796004</v>
       </c>
-      <c r="AJ32" s="76"/>
+      <c r="AJ32" s="71"/>
     </row>
     <row r="33" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -17758,22 +17787,22 @@
       <c r="U33" s="5">
         <v>548</v>
       </c>
-      <c r="V33" s="51">
+      <c r="V33" s="37">
         <v>-9089</v>
       </c>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="50"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="36"/>
     </row>
     <row r="34" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -17836,22 +17865,22 @@
       <c r="U34" s="5">
         <v>1517</v>
       </c>
-      <c r="V34" s="51">
+      <c r="V34" s="37">
         <v>-8120</v>
       </c>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="50"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="36"/>
     </row>
     <row r="35" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -17914,22 +17943,22 @@
       <c r="U35" s="5">
         <v>2150</v>
       </c>
-      <c r="V35" s="51">
+      <c r="V35" s="37">
         <v>-7487</v>
       </c>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="50"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="36"/>
     </row>
     <row r="36" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
@@ -17992,22 +18021,22 @@
       <c r="U36" s="5">
         <v>2380</v>
       </c>
-      <c r="V36" s="51">
+      <c r="V36" s="37">
         <v>-7257</v>
       </c>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="50"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="36"/>
     </row>
     <row r="37" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
@@ -18070,22 +18099,22 @@
       <c r="U37" s="5">
         <v>2971</v>
       </c>
-      <c r="V37" s="51">
+      <c r="V37" s="37">
         <v>-811</v>
       </c>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="50"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="36"/>
     </row>
     <row r="38" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -18148,22 +18177,22 @@
       <c r="U38" s="5">
         <v>4422</v>
       </c>
-      <c r="V38" s="51">
+      <c r="V38" s="37">
         <v>641</v>
       </c>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="50"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="36"/>
     </row>
     <row r="39" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
@@ -18226,22 +18255,22 @@
       <c r="U39" s="5">
         <v>5138</v>
       </c>
-      <c r="V39" s="51">
+      <c r="V39" s="37">
         <v>1356</v>
       </c>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="50"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="36"/>
     </row>
     <row r="40" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
@@ -18262,67 +18291,72 @@
       <c r="G40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="39">
         <v>10941</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="39">
         <v>10941</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="39">
         <v>10941</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="39">
         <v>10626</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="39">
         <v>9870</v>
       </c>
-      <c r="M40" s="53">
+      <c r="M40" s="39">
         <v>9113</v>
       </c>
-      <c r="N40" s="53">
+      <c r="N40" s="39">
         <v>10204</v>
       </c>
-      <c r="O40" s="53">
+      <c r="O40" s="39">
         <v>8439</v>
       </c>
-      <c r="P40" s="53">
+      <c r="P40" s="39">
         <v>6675</v>
       </c>
-      <c r="Q40" s="53">
+      <c r="Q40" s="39">
         <v>9782</v>
       </c>
-      <c r="R40" s="53">
+      <c r="R40" s="39">
         <v>7009</v>
       </c>
-      <c r="S40" s="53">
+      <c r="S40" s="39">
         <v>4236</v>
       </c>
-      <c r="T40" s="53">
+      <c r="T40" s="39">
         <v>9361</v>
       </c>
-      <c r="U40" s="53">
+      <c r="U40" s="39">
         <v>5579</v>
       </c>
-      <c r="V40" s="54">
+      <c r="V40" s="40">
         <v>1798</v>
       </c>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="48"/>
-      <c r="AJ40" s="50"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AJ13:AJ20"/>
+    <mergeCell ref="AJ5:AJ12"/>
+    <mergeCell ref="AJ25:AJ32"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:G2"/>
@@ -18339,11 +18373,6 @@
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AJ13:AJ20"/>
-    <mergeCell ref="AJ5:AJ12"/>
-    <mergeCell ref="AJ25:AJ32"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:V20">
     <cfRule type="colorScale" priority="2">
@@ -18376,652 +18405,645 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0FA687-905C-41AB-A559-CA7C7BA59027}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="52" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="4.140625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="76">
+        <v>35769</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="76">
+        <v>35136</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="76">
+        <v>35040</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="77">
+        <v>36507</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="73">
+        <v>1.59</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="73">
+        <v>1.85</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="73">
+        <v>2.33</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="73">
+        <v>1.73</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="73">
+        <v>1.92</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="73">
+        <v>2.11</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="80">
+        <v>3</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="79"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="73">
+        <v>6</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="73">
+        <v>7.75</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="73">
+        <v>19</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="73">
+        <v>1</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="73">
+        <v>417.42</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="73">
+        <v>7</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="76">
+        <v>885</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="80">
+        <v>25</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="79"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="73">
+        <v>30</v>
+      </c>
+      <c r="D34" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="E34" s="79" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="20"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="73">
+        <v>6.6</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="20">
-        <v>6</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="20"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="81">
+        <v>0.04</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="20"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="20">
-        <v>7.75</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="25"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="73">
+        <v>1360</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="83">
+        <v>7580.62</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="84">
+        <v>1760</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="84">
+        <v>1700</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="84">
+        <v>2720</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="84">
+        <v>3075</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="84">
+        <v>16734.04</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="73">
+        <v>996</v>
+      </c>
+      <c r="D47" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="84">
+        <v>2460</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="85">
+        <v>2868</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="20">
-        <v>417.42</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="20">
-        <v>7</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="20">
-        <v>25</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1.59</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1.85</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="20">
-        <v>2.33</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1.73</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1.92</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="20">
-        <v>2.11</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="20">
-        <v>30</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="28">
-        <v>0.04</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1360</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="21">
-        <v>7580.62</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="22">
-        <v>1760</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1700</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="22">
-        <v>2720</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="22">
-        <v>3075</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="22">
-        <v>16734.04</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="20">
-        <v>996</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="22">
-        <v>2460</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="23">
-        <v>2868</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="32"/>
+      <c r="E51" s="80" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B26:E26"/>
+  <mergeCells count="5">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results/0 Compiled Results for Manuscript.xlsx
+++ b/Results/0 Compiled Results for Manuscript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2794" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5877D46F-D8AC-2E4C-B72F-B5557BC3069C}"/>
+  <xr:revisionPtr revIDLastSave="2796" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7CF885-5CA2-48A5-BD24-610DDB1B876E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAV" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,11 +1089,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,11 +1106,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,9 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,24 +1151,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -13650,122 +13649,122 @@
   </sheetPr>
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="42" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="58" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="58" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
       <c r="X1" s="27"/>
-      <c r="Y1" s="81" t="s">
+      <c r="Y1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81" t="s">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81" t="s">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81" t="s">
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81" t="s">
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81" t="s">
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
     </row>
-    <row r="2" spans="1:58" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -13812,64 +13811,64 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X2" s="27"/>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="80" t="s">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80" t="s">
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80" t="s">
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80" t="s">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="s">
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80" t="s">
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80" t="s">
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80" t="s">
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80" t="s">
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
     </row>
-    <row r="3" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -13888,30 +13887,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="81" t="s">
+      <c r="Y3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
       <c r="AC3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -14003,7 +14002,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.5</v>
       </c>
@@ -14113,7 +14112,7 @@
       <c r="BE4" s="32"/>
       <c r="BF4" s="33"/>
     </row>
-    <row r="5" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.5</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.5</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.5</v>
       </c>
@@ -14995,7 +14994,7 @@
       <c r="AY9" s="19"/>
       <c r="AZ9" s="19"/>
     </row>
-    <row r="10" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
@@ -15077,7 +15076,7 @@
       <c r="AY10" s="19"/>
       <c r="AZ10" s="19"/>
     </row>
-    <row r="11" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
@@ -15159,7 +15158,7 @@
       <c r="AY11" s="19"/>
       <c r="AZ11" s="19"/>
     </row>
-    <row r="12" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.25</v>
       </c>
@@ -15241,7 +15240,7 @@
       <c r="AY12" s="19"/>
       <c r="AZ12" s="19"/>
     </row>
-    <row r="13" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.25</v>
       </c>
@@ -15306,7 +15305,7 @@
         <v>-9441</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.25</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>-8809</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.25</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>-8578</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.25</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>-2132</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0.25</v>
       </c>
@@ -15566,7 +15565,7 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>0.25</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>0.25</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -15927,7 +15926,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -16081,7 +16080,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -16235,7 +16234,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -16312,27 +16311,11 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AU1:AZ1"/>
@@ -16343,6 +16326,22 @@
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -16358,117 +16357,117 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="41" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="57" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="57" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
       <c r="W1" s="27"/>
-      <c r="X1" s="81" t="s">
+      <c r="X1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81" t="s">
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81" t="s">
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81" t="s">
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81" t="s">
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81" t="s">
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
     </row>
-    <row r="2" spans="1:57" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -16515,64 +16514,64 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="27"/>
-      <c r="X2" s="80" t="s">
+      <c r="X2" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80" t="s">
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80" t="s">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80" t="s">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80" t="s">
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80" t="s">
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80" t="s">
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80" t="s">
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80" t="s">
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
     </row>
-    <row r="3" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -16591,30 +16590,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="81" t="s">
+      <c r="X3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
       <c r="AB3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.5</v>
       </c>
@@ -16816,7 +16815,7 @@
       <c r="BD4" s="52"/>
       <c r="BE4" s="52"/>
     </row>
-    <row r="5" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.5</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.5</v>
       </c>
@@ -17616,7 +17615,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.5</v>
       </c>
@@ -17681,7 +17680,7 @@
         <v>22466</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
@@ -17746,7 +17745,7 @@
         <v>23181</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>23623</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.25</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>-9089</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.25</v>
       </c>
@@ -17941,7 +17940,7 @@
         <v>-8120</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.25</v>
       </c>
@@ -18006,7 +18005,7 @@
         <v>-7487</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.25</v>
       </c>
@@ -18071,7 +18070,7 @@
         <v>-7257</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.25</v>
       </c>
@@ -18136,7 +18135,7 @@
         <v>-811</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0.25</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>0.25</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>0.25</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -18408,7 +18407,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -18562,7 +18561,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -18639,7 +18638,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -18793,7 +18792,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -18947,11 +18946,21 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AT1:AY1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
@@ -18968,16 +18977,6 @@
     <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="AH1:AM1"/>
     <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AT1:AY1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18993,144 +18992,159 @@
   <dimension ref="A1:BZ39"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:BZ3"/>
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.83203125" style="67"/>
-    <col min="24" max="24" width="22.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" style="67"/>
-    <col min="44" max="44" width="2" style="67" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="8.83203125" style="67"/>
-    <col min="48" max="48" width="23.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="49" max="78" width="9.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.83203125" style="67"/>
+    <col min="1" max="1" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.85546875" style="67"/>
+    <col min="24" max="24" width="24.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.85546875" style="67"/>
+    <col min="44" max="44" width="1.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="8.85546875" style="67"/>
+    <col min="48" max="48" width="26" style="67" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="71" max="78" width="6.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="81" t="s">
+      <c r="Y1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81" t="s">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="85" t="s">
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
       <c r="AV1" s="2"/>
-      <c r="AW1" s="81" t="s">
+      <c r="AW1" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81" t="s">
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81" t="s">
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81" t="s">
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81" t="s">
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="BV1" s="81"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -19177,89 +19191,89 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X2" s="2"/>
-      <c r="Y2" s="85" t="s">
+      <c r="Y2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85" t="s">
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85" t="s">
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85" t="s">
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85" t="s">
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85" t="s">
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
       <c r="AV2" s="65"/>
-      <c r="AW2" s="85" t="s">
+      <c r="AW2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85" t="s">
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="85" t="s">
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85" t="s">
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="85" t="s">
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85" t="s">
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85" t="s">
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
-      <c r="BR2" s="85" t="s">
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BS2" s="85"/>
-      <c r="BT2" s="85"/>
-      <c r="BU2" s="85" t="s">
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BV2" s="85"/>
-      <c r="BW2" s="85"/>
-      <c r="BX2" s="85" t="s">
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="85"/>
-      <c r="BZ2" s="85"/>
+      <c r="BY2" s="87"/>
+      <c r="BZ2" s="87"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>18</v>
       </c>
@@ -19278,23 +19292,23 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
         <v>111</v>
@@ -19442,7 +19456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>0.5</v>
       </c>
@@ -19578,98 +19592,98 @@
       <c r="AV4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AW4" s="103">
+      <c r="AW4" s="81">
         <v>9619</v>
       </c>
-      <c r="AX4" s="103">
+      <c r="AX4" s="81">
         <v>9619</v>
       </c>
-      <c r="AY4" s="103">
+      <c r="AY4" s="81">
         <v>9619</v>
       </c>
-      <c r="AZ4" s="103">
+      <c r="AZ4" s="81">
         <v>9619</v>
       </c>
-      <c r="BA4" s="103">
+      <c r="BA4" s="81">
         <v>9619</v>
       </c>
-      <c r="BB4" s="103">
+      <c r="BB4" s="81">
         <v>9619</v>
       </c>
-      <c r="BC4" s="103">
+      <c r="BC4" s="81">
         <v>9619</v>
       </c>
-      <c r="BD4" s="103">
+      <c r="BD4" s="81">
         <v>9619</v>
       </c>
-      <c r="BE4" s="103">
+      <c r="BE4" s="81">
         <v>9619</v>
       </c>
-      <c r="BF4" s="103">
+      <c r="BF4" s="81">
         <v>9619</v>
       </c>
-      <c r="BG4" s="103">
+      <c r="BG4" s="81">
         <v>9619</v>
       </c>
-      <c r="BH4" s="103">
+      <c r="BH4" s="81">
         <v>9619</v>
       </c>
-      <c r="BI4" s="103">
+      <c r="BI4" s="81">
         <v>9619</v>
       </c>
-      <c r="BJ4" s="103">
+      <c r="BJ4" s="81">
         <v>9619</v>
       </c>
-      <c r="BK4" s="103">
+      <c r="BK4" s="81">
         <v>9619</v>
       </c>
-      <c r="BL4" s="103">
+      <c r="BL4" s="81">
         <v>9619</v>
       </c>
-      <c r="BM4" s="103">
+      <c r="BM4" s="81">
         <v>9619</v>
       </c>
-      <c r="BN4" s="103">
+      <c r="BN4" s="81">
         <v>9619</v>
       </c>
-      <c r="BO4" s="103">
+      <c r="BO4" s="81">
         <v>9619</v>
       </c>
-      <c r="BP4" s="103">
+      <c r="BP4" s="81">
         <v>9619</v>
       </c>
-      <c r="BQ4" s="103">
+      <c r="BQ4" s="81">
         <v>9619</v>
       </c>
-      <c r="BR4" s="103">
+      <c r="BR4" s="81">
         <v>9619</v>
       </c>
-      <c r="BS4" s="103">
+      <c r="BS4" s="81">
         <v>9619</v>
       </c>
-      <c r="BT4" s="103">
+      <c r="BT4" s="81">
         <v>9619</v>
       </c>
-      <c r="BU4" s="103">
+      <c r="BU4" s="81">
         <v>9619</v>
       </c>
-      <c r="BV4" s="103">
+      <c r="BV4" s="81">
         <v>9619</v>
       </c>
-      <c r="BW4" s="103">
+      <c r="BW4" s="81">
         <v>9619</v>
       </c>
-      <c r="BX4" s="103">
+      <c r="BX4" s="81">
         <v>9619</v>
       </c>
-      <c r="BY4" s="103">
+      <c r="BY4" s="81">
         <v>9619</v>
       </c>
-      <c r="BZ4" s="103">
+      <c r="BZ4" s="81">
         <v>9619</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>0.5</v>
       </c>
@@ -19805,62 +19819,62 @@
       <c r="AV5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AW5" s="103">
+      <c r="AW5" s="81">
         <f>J4</f>
         <v>11869</v>
       </c>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103">
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81">
         <f>J8</f>
         <v>12368</v>
       </c>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103">
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81">
         <f>M4</f>
         <v>14865</v>
       </c>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103">
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81">
         <f>M8</f>
         <v>16031</v>
       </c>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103">
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="81">
         <f>P4</f>
         <v>17862</v>
       </c>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103">
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="81"/>
+      <c r="BL5" s="81">
         <f>P8</f>
         <v>19695</v>
       </c>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="103"/>
-      <c r="BO5" s="103">
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="81"/>
+      <c r="BO5" s="81">
         <f>S4</f>
         <v>20860</v>
       </c>
-      <c r="BP5" s="103"/>
-      <c r="BQ5" s="103"/>
-      <c r="BR5" s="103">
+      <c r="BP5" s="81"/>
+      <c r="BQ5" s="81"/>
+      <c r="BR5" s="81">
         <f>S8</f>
         <v>23359</v>
       </c>
-      <c r="BS5" s="103"/>
-      <c r="BT5" s="103"/>
-      <c r="BU5" s="103"/>
-      <c r="BV5" s="103"/>
-      <c r="BW5" s="103"/>
-      <c r="BX5" s="103"/>
-      <c r="BY5" s="103"/>
-      <c r="BZ5" s="103"/>
+      <c r="BS5" s="81"/>
+      <c r="BT5" s="81"/>
+      <c r="BU5" s="81"/>
+      <c r="BV5" s="81"/>
+      <c r="BW5" s="81"/>
+      <c r="BX5" s="81"/>
+      <c r="BY5" s="81"/>
+      <c r="BZ5" s="81"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>0.5</v>
       </c>
@@ -19996,38 +20010,38 @@
       <c r="AV6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AW6" s="103"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="103"/>
-      <c r="BD6" s="103"/>
-      <c r="BE6" s="103"/>
-      <c r="BF6" s="103"/>
-      <c r="BG6" s="103"/>
-      <c r="BH6" s="103"/>
-      <c r="BI6" s="103"/>
-      <c r="BJ6" s="103"/>
-      <c r="BK6" s="103"/>
-      <c r="BL6" s="103"/>
-      <c r="BM6" s="103"/>
-      <c r="BN6" s="103"/>
-      <c r="BO6" s="103"/>
-      <c r="BP6" s="103"/>
-      <c r="BQ6" s="103"/>
-      <c r="BR6" s="103"/>
-      <c r="BS6" s="103"/>
-      <c r="BT6" s="103"/>
-      <c r="BU6" s="103"/>
-      <c r="BV6" s="103"/>
-      <c r="BW6" s="103"/>
-      <c r="BX6" s="103"/>
-      <c r="BY6" s="103"/>
-      <c r="BZ6" s="103"/>
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="81"/>
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="81"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="81"/>
+      <c r="BO6" s="81"/>
+      <c r="BP6" s="81"/>
+      <c r="BQ6" s="81"/>
+      <c r="BR6" s="81"/>
+      <c r="BS6" s="81"/>
+      <c r="BT6" s="81"/>
+      <c r="BU6" s="81"/>
+      <c r="BV6" s="81"/>
+      <c r="BW6" s="81"/>
+      <c r="BX6" s="81"/>
+      <c r="BY6" s="81"/>
+      <c r="BZ6" s="81"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>0.5</v>
       </c>
@@ -20163,38 +20177,38 @@
       <c r="AV7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="103"/>
-      <c r="BA7" s="103"/>
-      <c r="BB7" s="103"/>
-      <c r="BC7" s="103"/>
-      <c r="BD7" s="103"/>
-      <c r="BE7" s="103"/>
-      <c r="BF7" s="103"/>
-      <c r="BG7" s="103"/>
-      <c r="BH7" s="103"/>
-      <c r="BI7" s="103"/>
-      <c r="BJ7" s="103"/>
-      <c r="BK7" s="103"/>
-      <c r="BL7" s="103"/>
-      <c r="BM7" s="103"/>
-      <c r="BN7" s="103"/>
-      <c r="BO7" s="103"/>
-      <c r="BP7" s="103"/>
-      <c r="BQ7" s="103"/>
-      <c r="BR7" s="103"/>
-      <c r="BS7" s="103"/>
-      <c r="BT7" s="103"/>
-      <c r="BU7" s="103"/>
-      <c r="BV7" s="103"/>
-      <c r="BW7" s="103"/>
-      <c r="BX7" s="103"/>
-      <c r="BY7" s="103"/>
-      <c r="BZ7" s="103"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
+      <c r="BK7" s="81"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="81"/>
+      <c r="BN7" s="81"/>
+      <c r="BO7" s="81"/>
+      <c r="BP7" s="81"/>
+      <c r="BQ7" s="81"/>
+      <c r="BR7" s="81"/>
+      <c r="BS7" s="81"/>
+      <c r="BT7" s="81"/>
+      <c r="BU7" s="81"/>
+      <c r="BV7" s="81"/>
+      <c r="BW7" s="81"/>
+      <c r="BX7" s="81"/>
+      <c r="BY7" s="81"/>
+      <c r="BZ7" s="81"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>0.5</v>
       </c>
@@ -20318,62 +20332,62 @@
       <c r="AV8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="103">
+      <c r="AW8" s="81">
         <f>J12</f>
         <v>8572</v>
       </c>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103">
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="81">
         <f>J16</f>
         <v>8782</v>
       </c>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103">
+      <c r="BA8" s="81"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81">
         <f>M12</f>
         <v>7174</v>
       </c>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103">
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81">
         <f>M16</f>
         <v>7665</v>
       </c>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="103">
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81">
         <f>P12</f>
         <v>5777</v>
       </c>
-      <c r="BJ8" s="103"/>
-      <c r="BK8" s="103"/>
-      <c r="BL8" s="103">
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81">
         <f>P16</f>
         <v>6547</v>
       </c>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="103">
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81">
         <f>S12</f>
         <v>4379</v>
       </c>
-      <c r="BP8" s="103"/>
-      <c r="BQ8" s="103"/>
-      <c r="BR8" s="103">
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81">
         <f>S16</f>
         <v>5430</v>
       </c>
-      <c r="BS8" s="103"/>
-      <c r="BT8" s="103"/>
-      <c r="BU8" s="103"/>
-      <c r="BV8" s="103"/>
-      <c r="BW8" s="103"/>
-      <c r="BX8" s="103"/>
-      <c r="BY8" s="103"/>
-      <c r="BZ8" s="103"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>0.5</v>
       </c>
@@ -20459,38 +20473,38 @@
       <c r="AV9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="103"/>
-      <c r="AZ9" s="103"/>
-      <c r="BA9" s="103"/>
-      <c r="BB9" s="103"/>
-      <c r="BC9" s="103"/>
-      <c r="BD9" s="103"/>
-      <c r="BE9" s="103"/>
-      <c r="BF9" s="103"/>
-      <c r="BG9" s="103"/>
-      <c r="BH9" s="103"/>
-      <c r="BI9" s="103"/>
-      <c r="BJ9" s="103"/>
-      <c r="BK9" s="103"/>
-      <c r="BL9" s="103"/>
-      <c r="BM9" s="103"/>
-      <c r="BN9" s="103"/>
-      <c r="BO9" s="103"/>
-      <c r="BP9" s="103"/>
-      <c r="BQ9" s="103"/>
-      <c r="BR9" s="103"/>
-      <c r="BS9" s="103"/>
-      <c r="BT9" s="103"/>
-      <c r="BU9" s="103"/>
-      <c r="BV9" s="103"/>
-      <c r="BW9" s="103"/>
-      <c r="BX9" s="103"/>
-      <c r="BY9" s="103"/>
-      <c r="BZ9" s="103"/>
+      <c r="AW9" s="81"/>
+      <c r="AX9" s="81"/>
+      <c r="AY9" s="81"/>
+      <c r="AZ9" s="81"/>
+      <c r="BA9" s="81"/>
+      <c r="BB9" s="81"/>
+      <c r="BC9" s="81"/>
+      <c r="BD9" s="81"/>
+      <c r="BE9" s="81"/>
+      <c r="BF9" s="81"/>
+      <c r="BG9" s="81"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="81"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="81"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="81"/>
+      <c r="BQ9" s="81"/>
+      <c r="BR9" s="81"/>
+      <c r="BS9" s="81"/>
+      <c r="BT9" s="81"/>
+      <c r="BU9" s="81"/>
+      <c r="BV9" s="81"/>
+      <c r="BW9" s="81"/>
+      <c r="BX9" s="81"/>
+      <c r="BY9" s="81"/>
+      <c r="BZ9" s="81"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>0.5</v>
       </c>
@@ -20576,38 +20590,38 @@
       <c r="AV10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
-      <c r="BQ10" s="103"/>
-      <c r="BR10" s="103"/>
-      <c r="BS10" s="103"/>
-      <c r="BT10" s="103"/>
-      <c r="BU10" s="103"/>
-      <c r="BV10" s="103"/>
-      <c r="BW10" s="103"/>
-      <c r="BX10" s="103"/>
-      <c r="BY10" s="103"/>
-      <c r="BZ10" s="103"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="81"/>
+      <c r="BF10" s="81"/>
+      <c r="BG10" s="81"/>
+      <c r="BH10" s="81"/>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="81"/>
+      <c r="BK10" s="81"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="81"/>
+      <c r="BN10" s="81"/>
+      <c r="BO10" s="81"/>
+      <c r="BP10" s="81"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="81"/>
+      <c r="BS10" s="81"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="81"/>
+      <c r="BV10" s="81"/>
+      <c r="BW10" s="81"/>
+      <c r="BX10" s="81"/>
+      <c r="BY10" s="81"/>
+      <c r="BZ10" s="81"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>0.5</v>
       </c>
@@ -20674,38 +20688,38 @@
       <c r="AV11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="103"/>
-      <c r="BA11" s="103"/>
-      <c r="BB11" s="103"/>
-      <c r="BC11" s="103"/>
-      <c r="BD11" s="103"/>
-      <c r="BE11" s="103"/>
-      <c r="BF11" s="103"/>
-      <c r="BG11" s="103"/>
-      <c r="BH11" s="103"/>
-      <c r="BI11" s="103"/>
-      <c r="BJ11" s="103"/>
-      <c r="BK11" s="103"/>
-      <c r="BL11" s="103"/>
-      <c r="BM11" s="103"/>
-      <c r="BN11" s="103"/>
-      <c r="BO11" s="103"/>
-      <c r="BP11" s="103"/>
-      <c r="BQ11" s="103"/>
-      <c r="BR11" s="103"/>
-      <c r="BS11" s="103"/>
-      <c r="BT11" s="103"/>
-      <c r="BU11" s="103"/>
-      <c r="BV11" s="103"/>
-      <c r="BW11" s="103"/>
-      <c r="BX11" s="103"/>
-      <c r="BY11" s="103"/>
-      <c r="BZ11" s="103"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="81"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="81"/>
+      <c r="BC11" s="81"/>
+      <c r="BD11" s="81"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="81"/>
+      <c r="BG11" s="81"/>
+      <c r="BH11" s="81"/>
+      <c r="BI11" s="81"/>
+      <c r="BJ11" s="81"/>
+      <c r="BK11" s="81"/>
+      <c r="BL11" s="81"/>
+      <c r="BM11" s="81"/>
+      <c r="BN11" s="81"/>
+      <c r="BO11" s="81"/>
+      <c r="BP11" s="81"/>
+      <c r="BQ11" s="81"/>
+      <c r="BR11" s="81"/>
+      <c r="BS11" s="81"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="81"/>
+      <c r="BV11" s="81"/>
+      <c r="BW11" s="81"/>
+      <c r="BX11" s="81"/>
+      <c r="BY11" s="81"/>
+      <c r="BZ11" s="81"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>0.25</v>
       </c>
@@ -20772,38 +20786,38 @@
       <c r="AV12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AW12" s="103"/>
-      <c r="AX12" s="103"/>
-      <c r="AY12" s="103"/>
-      <c r="AZ12" s="103"/>
-      <c r="BA12" s="103"/>
-      <c r="BB12" s="103"/>
-      <c r="BC12" s="103"/>
-      <c r="BD12" s="103"/>
-      <c r="BE12" s="103"/>
-      <c r="BF12" s="103"/>
-      <c r="BG12" s="103"/>
-      <c r="BH12" s="103"/>
-      <c r="BI12" s="103"/>
-      <c r="BJ12" s="103"/>
-      <c r="BK12" s="103"/>
-      <c r="BL12" s="103"/>
-      <c r="BM12" s="103"/>
-      <c r="BN12" s="103"/>
-      <c r="BO12" s="103"/>
-      <c r="BP12" s="103"/>
-      <c r="BQ12" s="103"/>
-      <c r="BR12" s="103"/>
-      <c r="BS12" s="103"/>
-      <c r="BT12" s="103"/>
-      <c r="BU12" s="103"/>
-      <c r="BV12" s="103"/>
-      <c r="BW12" s="103"/>
-      <c r="BX12" s="103"/>
-      <c r="BY12" s="103"/>
-      <c r="BZ12" s="103"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="81"/>
+      <c r="BA12" s="81"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="81"/>
+      <c r="BD12" s="81"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="81"/>
+      <c r="BG12" s="81"/>
+      <c r="BH12" s="81"/>
+      <c r="BI12" s="81"/>
+      <c r="BJ12" s="81"/>
+      <c r="BK12" s="81"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="81"/>
+      <c r="BN12" s="81"/>
+      <c r="BO12" s="81"/>
+      <c r="BP12" s="81"/>
+      <c r="BQ12" s="81"/>
+      <c r="BR12" s="81"/>
+      <c r="BS12" s="81"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="81"/>
+      <c r="BV12" s="81"/>
+      <c r="BW12" s="81"/>
+      <c r="BX12" s="81"/>
+      <c r="BY12" s="81"/>
+      <c r="BZ12" s="81"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>0.25</v>
       </c>
@@ -20868,7 +20882,7 @@
         <v>-9441</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>0.25</v>
       </c>
@@ -20933,7 +20947,7 @@
         <v>-8809</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>0.25</v>
       </c>
@@ -20998,7 +21012,7 @@
         <v>-8578</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>0.25</v>
       </c>
@@ -21063,7 +21077,7 @@
         <v>-2132</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="68">
         <v>0.25</v>
       </c>
@@ -21128,7 +21142,7 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
         <v>0.25</v>
       </c>
@@ -21193,7 +21207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>0.25</v>
       </c>
@@ -21258,7 +21272,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -21335,7 +21349,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -21412,7 +21426,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -21489,7 +21503,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -21566,7 +21580,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -21643,7 +21657,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -21720,7 +21734,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -21797,7 +21811,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -21874,31 +21888,21 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G29" s="77"/>
     </row>
-    <row r="39" spans="44:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR39" s="67" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="G3:U3"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
@@ -21911,11 +21915,21 @@
     <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="BX2:BZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -21925,141 +21939,142 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C6627-9413-4ADE-91B0-C9382FE8C1E6}">
-  <dimension ref="A1:CI28"/>
+  <dimension ref="A1:CA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV2" sqref="BV2:BX2"/>
+    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD19" sqref="BD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" style="67"/>
-    <col min="23" max="23" width="22.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="24" max="36" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="42" max="48" width="8.83203125" style="67"/>
-    <col min="49" max="49" width="23.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="50" max="79" width="6.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.83203125" style="67"/>
+    <col min="1" max="1" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="67"/>
+    <col min="23" max="23" width="24.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="24" max="36" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="42" max="48" width="8.85546875" style="67"/>
+    <col min="49" max="49" width="26" style="67" bestFit="1" customWidth="1"/>
+    <col min="50" max="79" width="6.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="81" t="s">
+      <c r="X1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81" t="s">
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="85" t="s">
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="81" t="s">
+      <c r="AX1" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81" t="s">
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81" t="s">
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81" t="s">
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81" t="s">
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82"/>
+      <c r="CA1" s="82"/>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -22106,89 +22121,89 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="65"/>
-      <c r="X2" s="85" t="s">
+      <c r="X2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85" t="s">
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85" t="s">
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="s">
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85" t="s">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
       <c r="AW2" s="65"/>
-      <c r="AX2" s="85" t="s">
+      <c r="AX2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85" t="s">
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85" t="s">
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85" t="s">
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="85" t="s">
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
-      <c r="BM2" s="85" t="s">
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85" t="s">
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BQ2" s="85"/>
-      <c r="BR2" s="85"/>
-      <c r="BS2" s="85" t="s">
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87"/>
+      <c r="BS2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BT2" s="85"/>
-      <c r="BU2" s="85"/>
-      <c r="BV2" s="85" t="s">
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="85"/>
-      <c r="BX2" s="85"/>
-      <c r="BY2" s="85" t="s">
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
+      <c r="BY2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BZ2" s="85"/>
-      <c r="CA2" s="85"/>
+      <c r="BZ2" s="87"/>
+      <c r="CA2" s="87"/>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>18</v>
       </c>
@@ -22207,23 +22222,23 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
         <v>111</v>
@@ -22371,7 +22386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>0.5</v>
       </c>
@@ -22507,106 +22522,98 @@
       <c r="AW4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AX4" s="101">
+      <c r="AX4" s="80">
         <v>10941</v>
       </c>
-      <c r="AY4" s="101">
+      <c r="AY4" s="80">
         <v>10941</v>
       </c>
-      <c r="AZ4" s="101">
+      <c r="AZ4" s="80">
         <v>10941</v>
       </c>
-      <c r="BA4" s="101">
+      <c r="BA4" s="80">
         <v>10941</v>
       </c>
-      <c r="BB4" s="101">
+      <c r="BB4" s="80">
         <v>10941</v>
       </c>
-      <c r="BC4" s="101">
+      <c r="BC4" s="80">
         <v>10941</v>
       </c>
-      <c r="BD4" s="101">
+      <c r="BD4" s="80">
         <v>10941</v>
       </c>
-      <c r="BE4" s="101">
+      <c r="BE4" s="80">
         <v>10941</v>
       </c>
-      <c r="BF4" s="101">
+      <c r="BF4" s="80">
         <v>10941</v>
       </c>
-      <c r="BG4" s="101">
+      <c r="BG4" s="80">
         <v>10941</v>
       </c>
-      <c r="BH4" s="101">
+      <c r="BH4" s="80">
         <v>10941</v>
       </c>
-      <c r="BI4" s="101">
+      <c r="BI4" s="80">
         <v>10941</v>
       </c>
-      <c r="BJ4" s="101">
+      <c r="BJ4" s="80">
         <v>10941</v>
       </c>
-      <c r="BK4" s="101">
+      <c r="BK4" s="80">
         <v>10941</v>
       </c>
-      <c r="BL4" s="101">
+      <c r="BL4" s="80">
         <v>10941</v>
       </c>
-      <c r="BM4" s="101">
+      <c r="BM4" s="80">
         <v>10941</v>
       </c>
-      <c r="BN4" s="101">
+      <c r="BN4" s="80">
         <v>10941</v>
       </c>
-      <c r="BO4" s="101">
+      <c r="BO4" s="80">
         <v>10941</v>
       </c>
-      <c r="BP4" s="101">
+      <c r="BP4" s="80">
         <v>10941</v>
       </c>
-      <c r="BQ4" s="101">
+      <c r="BQ4" s="80">
         <v>10941</v>
       </c>
-      <c r="BR4" s="101">
+      <c r="BR4" s="80">
         <v>10941</v>
       </c>
-      <c r="BS4" s="101">
+      <c r="BS4" s="80">
         <v>10941</v>
       </c>
-      <c r="BT4" s="101">
+      <c r="BT4" s="80">
         <v>10941</v>
       </c>
-      <c r="BU4" s="101">
+      <c r="BU4" s="80">
         <v>10941</v>
       </c>
-      <c r="BV4" s="101">
+      <c r="BV4" s="80">
         <v>10941</v>
       </c>
-      <c r="BW4" s="101">
+      <c r="BW4" s="80">
         <v>10941</v>
       </c>
-      <c r="BX4" s="101">
+      <c r="BX4" s="80">
         <v>10941</v>
       </c>
-      <c r="BY4" s="101">
+      <c r="BY4" s="80">
         <v>10941</v>
       </c>
-      <c r="BZ4" s="101">
+      <c r="BZ4" s="80">
         <v>10941</v>
       </c>
-      <c r="CA4" s="101">
+      <c r="CA4" s="80">
         <v>10941</v>
       </c>
-      <c r="CB4" s="102"/>
-      <c r="CC4" s="102"/>
-      <c r="CD4" s="102"/>
-      <c r="CE4" s="102"/>
-      <c r="CF4" s="102"/>
-      <c r="CG4" s="102"/>
-      <c r="CH4" s="102"/>
-      <c r="CI4" s="102"/>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>0.5</v>
       </c>
@@ -22760,28 +22767,20 @@
       <c r="BM5" s="66"/>
       <c r="BN5" s="66"/>
       <c r="BO5" s="66"/>
-      <c r="BP5" s="101"/>
-      <c r="BQ5" s="101"/>
-      <c r="BR5" s="101"/>
-      <c r="BS5" s="101"/>
-      <c r="BT5" s="101"/>
-      <c r="BU5" s="101"/>
-      <c r="BV5" s="101"/>
-      <c r="BW5" s="101"/>
-      <c r="BX5" s="101"/>
-      <c r="BY5" s="101"/>
-      <c r="BZ5" s="101"/>
-      <c r="CA5" s="101"/>
-      <c r="CB5" s="102"/>
-      <c r="CC5" s="102"/>
-      <c r="CD5" s="102"/>
-      <c r="CE5" s="102"/>
-      <c r="CF5" s="102"/>
-      <c r="CG5" s="102"/>
-      <c r="CH5" s="102"/>
-      <c r="CI5" s="102"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="80"/>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>0.5</v>
       </c>
@@ -22935,28 +22934,20 @@
       <c r="BM6" s="66"/>
       <c r="BN6" s="66"/>
       <c r="BO6" s="66"/>
-      <c r="BP6" s="101"/>
-      <c r="BQ6" s="101"/>
-      <c r="BR6" s="101"/>
-      <c r="BS6" s="101"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="101"/>
-      <c r="BV6" s="101"/>
-      <c r="BW6" s="101"/>
-      <c r="BX6" s="101"/>
-      <c r="BY6" s="101"/>
-      <c r="BZ6" s="101"/>
-      <c r="CA6" s="101"/>
-      <c r="CB6" s="102"/>
-      <c r="CC6" s="102"/>
-      <c r="CD6" s="102"/>
-      <c r="CE6" s="102"/>
-      <c r="CF6" s="102"/>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
+      <c r="BP6" s="80"/>
+      <c r="BQ6" s="80"/>
+      <c r="BR6" s="80"/>
+      <c r="BS6" s="80"/>
+      <c r="BT6" s="80"/>
+      <c r="BU6" s="80"/>
+      <c r="BV6" s="80"/>
+      <c r="BW6" s="80"/>
+      <c r="BX6" s="80"/>
+      <c r="BY6" s="80"/>
+      <c r="BZ6" s="80"/>
+      <c r="CA6" s="80"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>0.5</v>
       </c>
@@ -23110,28 +23101,20 @@
       <c r="BM7" s="66"/>
       <c r="BN7" s="66"/>
       <c r="BO7" s="66"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="101"/>
-      <c r="BY7" s="101"/>
-      <c r="BZ7" s="101"/>
-      <c r="CA7" s="101"/>
-      <c r="CB7" s="102"/>
-      <c r="CC7" s="102"/>
-      <c r="CD7" s="102"/>
-      <c r="CE7" s="102"/>
-      <c r="CF7" s="102"/>
-      <c r="CG7" s="102"/>
-      <c r="CH7" s="102"/>
-      <c r="CI7" s="102"/>
+      <c r="BP7" s="80"/>
+      <c r="BQ7" s="80"/>
+      <c r="BR7" s="80"/>
+      <c r="BS7" s="80"/>
+      <c r="BT7" s="80"/>
+      <c r="BU7" s="80"/>
+      <c r="BV7" s="80"/>
+      <c r="BW7" s="80"/>
+      <c r="BX7" s="80"/>
+      <c r="BY7" s="80"/>
+      <c r="BZ7" s="80"/>
+      <c r="CA7" s="80"/>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>0.5</v>
       </c>
@@ -23198,103 +23181,95 @@
       <c r="W8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="X8" s="101">
+      <c r="X8" s="80">
         <v>10941</v>
       </c>
-      <c r="Y8" s="101">
+      <c r="Y8" s="80">
         <v>10941</v>
       </c>
-      <c r="Z8" s="101">
+      <c r="Z8" s="80">
         <v>10941</v>
       </c>
-      <c r="AA8" s="101">
+      <c r="AA8" s="80">
         <v>10941</v>
       </c>
-      <c r="AB8" s="101">
+      <c r="AB8" s="80">
         <v>10941</v>
       </c>
-      <c r="AC8" s="101">
+      <c r="AC8" s="80">
         <v>10941</v>
       </c>
-      <c r="AD8" s="101">
+      <c r="AD8" s="80">
         <v>10941</v>
       </c>
-      <c r="AE8" s="101">
+      <c r="AE8" s="80">
         <v>10941</v>
       </c>
-      <c r="AF8" s="101">
+      <c r="AF8" s="80">
         <v>10941</v>
       </c>
-      <c r="AG8" s="101">
+      <c r="AG8" s="80">
         <v>10941</v>
       </c>
-      <c r="AH8" s="101">
+      <c r="AH8" s="80">
         <v>10941</v>
       </c>
-      <c r="AI8" s="101">
+      <c r="AI8" s="80">
         <v>10941</v>
       </c>
-      <c r="AJ8" s="101">
+      <c r="AJ8" s="80">
         <v>10941</v>
       </c>
-      <c r="AK8" s="101">
+      <c r="AK8" s="80">
         <v>10941</v>
       </c>
-      <c r="AL8" s="101">
+      <c r="AL8" s="80">
         <v>10941</v>
       </c>
-      <c r="AM8" s="101">
+      <c r="AM8" s="80">
         <v>10941</v>
       </c>
-      <c r="AN8" s="101">
+      <c r="AN8" s="80">
         <v>10941</v>
       </c>
-      <c r="AO8" s="101">
+      <c r="AO8" s="80">
         <v>10941</v>
       </c>
       <c r="AW8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="101"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="101"/>
-      <c r="CA8" s="101"/>
-      <c r="CB8" s="102"/>
-      <c r="CC8" s="102"/>
-      <c r="CD8" s="102"/>
-      <c r="CE8" s="102"/>
-      <c r="CF8" s="102"/>
-      <c r="CG8" s="102"/>
-      <c r="CH8" s="102"/>
-      <c r="CI8" s="102"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="80"/>
+      <c r="BJ8" s="80"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="80"/>
+      <c r="BN8" s="80"/>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="80"/>
+      <c r="BQ8" s="80"/>
+      <c r="BR8" s="80"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="80"/>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="80"/>
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="80"/>
+      <c r="CA8" s="80"/>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>0.5</v>
       </c>
@@ -23380,46 +23355,38 @@
       <c r="AW9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="101"/>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="101"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
-      <c r="BH9" s="101"/>
-      <c r="BI9" s="101"/>
-      <c r="BJ9" s="101"/>
-      <c r="BK9" s="101"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="101"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="101"/>
-      <c r="BR9" s="101"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="101"/>
-      <c r="BU9" s="101"/>
-      <c r="BV9" s="101"/>
-      <c r="BW9" s="101"/>
-      <c r="BX9" s="101"/>
-      <c r="BY9" s="101"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="101"/>
-      <c r="CB9" s="102"/>
-      <c r="CC9" s="102"/>
-      <c r="CD9" s="102"/>
-      <c r="CE9" s="102"/>
-      <c r="CF9" s="102"/>
-      <c r="CG9" s="102"/>
-      <c r="CH9" s="102"/>
-      <c r="CI9" s="102"/>
+      <c r="AX9" s="80"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="80"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="80"/>
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="80"/>
+      <c r="BM9" s="80"/>
+      <c r="BN9" s="80"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="80"/>
+      <c r="BQ9" s="80"/>
+      <c r="BR9" s="80"/>
+      <c r="BS9" s="80"/>
+      <c r="BT9" s="80"/>
+      <c r="BU9" s="80"/>
+      <c r="BV9" s="80"/>
+      <c r="BW9" s="80"/>
+      <c r="BX9" s="80"/>
+      <c r="BY9" s="80"/>
+      <c r="BZ9" s="80"/>
+      <c r="CA9" s="80"/>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>0.5</v>
       </c>
@@ -23505,46 +23472,38 @@
       <c r="AW10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AX10" s="101"/>
-      <c r="AY10" s="101"/>
-      <c r="AZ10" s="101"/>
-      <c r="BA10" s="101"/>
-      <c r="BB10" s="101"/>
-      <c r="BC10" s="101"/>
-      <c r="BD10" s="101"/>
-      <c r="BE10" s="101"/>
-      <c r="BF10" s="101"/>
-      <c r="BG10" s="101"/>
-      <c r="BH10" s="101"/>
-      <c r="BI10" s="101"/>
-      <c r="BJ10" s="101"/>
-      <c r="BK10" s="101"/>
-      <c r="BL10" s="101"/>
-      <c r="BM10" s="101"/>
-      <c r="BN10" s="101"/>
-      <c r="BO10" s="101"/>
-      <c r="BP10" s="101"/>
-      <c r="BQ10" s="101"/>
-      <c r="BR10" s="101"/>
-      <c r="BS10" s="101"/>
-      <c r="BT10" s="101"/>
-      <c r="BU10" s="101"/>
-      <c r="BV10" s="101"/>
-      <c r="BW10" s="101"/>
-      <c r="BX10" s="101"/>
-      <c r="BY10" s="101"/>
-      <c r="BZ10" s="101"/>
-      <c r="CA10" s="101"/>
-      <c r="CB10" s="102"/>
-      <c r="CC10" s="102"/>
-      <c r="CD10" s="102"/>
-      <c r="CE10" s="102"/>
-      <c r="CF10" s="102"/>
-      <c r="CG10" s="102"/>
-      <c r="CH10" s="102"/>
-      <c r="CI10" s="102"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="80"/>
+      <c r="AZ10" s="80"/>
+      <c r="BA10" s="80"/>
+      <c r="BB10" s="80"/>
+      <c r="BC10" s="80"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="80"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="80"/>
+      <c r="BN10" s="80"/>
+      <c r="BO10" s="80"/>
+      <c r="BP10" s="80"/>
+      <c r="BQ10" s="80"/>
+      <c r="BR10" s="80"/>
+      <c r="BS10" s="80"/>
+      <c r="BT10" s="80"/>
+      <c r="BU10" s="80"/>
+      <c r="BV10" s="80"/>
+      <c r="BW10" s="80"/>
+      <c r="BX10" s="80"/>
+      <c r="BY10" s="80"/>
+      <c r="BZ10" s="80"/>
+      <c r="CA10" s="80"/>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>0.5</v>
       </c>
@@ -23611,46 +23570,38 @@
       <c r="AW11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AX11" s="101"/>
-      <c r="AY11" s="101"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="101"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="101"/>
-      <c r="BE11" s="101"/>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="101"/>
-      <c r="BH11" s="101"/>
-      <c r="BI11" s="101"/>
-      <c r="BJ11" s="101"/>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="101"/>
-      <c r="BM11" s="101"/>
-      <c r="BN11" s="101"/>
-      <c r="BO11" s="101"/>
-      <c r="BP11" s="101"/>
-      <c r="BQ11" s="101"/>
-      <c r="BR11" s="101"/>
-      <c r="BS11" s="101"/>
-      <c r="BT11" s="101"/>
-      <c r="BU11" s="101"/>
-      <c r="BV11" s="101"/>
-      <c r="BW11" s="101"/>
-      <c r="BX11" s="101"/>
-      <c r="BY11" s="101"/>
-      <c r="BZ11" s="101"/>
-      <c r="CA11" s="101"/>
-      <c r="CB11" s="102"/>
-      <c r="CC11" s="102"/>
-      <c r="CD11" s="102"/>
-      <c r="CE11" s="102"/>
-      <c r="CF11" s="102"/>
-      <c r="CG11" s="102"/>
-      <c r="CH11" s="102"/>
-      <c r="CI11" s="102"/>
+      <c r="AX11" s="80"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BD11" s="80"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="80"/>
+      <c r="BI11" s="80"/>
+      <c r="BJ11" s="80"/>
+      <c r="BK11" s="80"/>
+      <c r="BL11" s="80"/>
+      <c r="BM11" s="80"/>
+      <c r="BN11" s="80"/>
+      <c r="BO11" s="80"/>
+      <c r="BP11" s="80"/>
+      <c r="BQ11" s="80"/>
+      <c r="BR11" s="80"/>
+      <c r="BS11" s="80"/>
+      <c r="BT11" s="80"/>
+      <c r="BU11" s="80"/>
+      <c r="BV11" s="80"/>
+      <c r="BW11" s="80"/>
+      <c r="BX11" s="80"/>
+      <c r="BY11" s="80"/>
+      <c r="BZ11" s="80"/>
+      <c r="CA11" s="80"/>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>0.25</v>
       </c>
@@ -23717,46 +23668,38 @@
       <c r="AW12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AX12" s="101"/>
-      <c r="AY12" s="101"/>
-      <c r="AZ12" s="101"/>
-      <c r="BA12" s="101"/>
-      <c r="BB12" s="101"/>
-      <c r="BC12" s="101"/>
-      <c r="BD12" s="101"/>
-      <c r="BE12" s="101"/>
-      <c r="BF12" s="101"/>
-      <c r="BG12" s="101"/>
-      <c r="BH12" s="101"/>
-      <c r="BI12" s="101"/>
-      <c r="BJ12" s="101"/>
-      <c r="BK12" s="101"/>
-      <c r="BL12" s="101"/>
-      <c r="BM12" s="101"/>
-      <c r="BN12" s="101"/>
-      <c r="BO12" s="101"/>
-      <c r="BP12" s="101"/>
-      <c r="BQ12" s="101"/>
-      <c r="BR12" s="101"/>
-      <c r="BS12" s="101"/>
-      <c r="BT12" s="101"/>
-      <c r="BU12" s="101"/>
-      <c r="BV12" s="101"/>
-      <c r="BW12" s="101"/>
-      <c r="BX12" s="101"/>
-      <c r="BY12" s="101"/>
-      <c r="BZ12" s="101"/>
-      <c r="CA12" s="101"/>
-      <c r="CB12" s="102"/>
-      <c r="CC12" s="102"/>
-      <c r="CD12" s="102"/>
-      <c r="CE12" s="102"/>
-      <c r="CF12" s="102"/>
-      <c r="CG12" s="102"/>
-      <c r="CH12" s="102"/>
-      <c r="CI12" s="102"/>
+      <c r="AX12" s="80"/>
+      <c r="AY12" s="80"/>
+      <c r="AZ12" s="80"/>
+      <c r="BA12" s="80"/>
+      <c r="BB12" s="80"/>
+      <c r="BC12" s="80"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="80"/>
+      <c r="BF12" s="80"/>
+      <c r="BG12" s="80"/>
+      <c r="BH12" s="80"/>
+      <c r="BI12" s="80"/>
+      <c r="BJ12" s="80"/>
+      <c r="BK12" s="80"/>
+      <c r="BL12" s="80"/>
+      <c r="BM12" s="80"/>
+      <c r="BN12" s="80"/>
+      <c r="BO12" s="80"/>
+      <c r="BP12" s="80"/>
+      <c r="BQ12" s="80"/>
+      <c r="BR12" s="80"/>
+      <c r="BS12" s="80"/>
+      <c r="BT12" s="80"/>
+      <c r="BU12" s="80"/>
+      <c r="BV12" s="80"/>
+      <c r="BW12" s="80"/>
+      <c r="BX12" s="80"/>
+      <c r="BY12" s="80"/>
+      <c r="BZ12" s="80"/>
+      <c r="CA12" s="80"/>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>0.25</v>
       </c>
@@ -23820,16 +23763,8 @@
       <c r="U13" s="74">
         <v>-8120</v>
       </c>
-      <c r="CB13" s="102"/>
-      <c r="CC13" s="102"/>
-      <c r="CD13" s="102"/>
-      <c r="CE13" s="102"/>
-      <c r="CF13" s="102"/>
-      <c r="CG13" s="102"/>
-      <c r="CH13" s="102"/>
-      <c r="CI13" s="102"/>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>0.25</v>
       </c>
@@ -23893,16 +23828,8 @@
       <c r="U14" s="74">
         <v>-7487</v>
       </c>
-      <c r="CB14" s="102"/>
-      <c r="CC14" s="102"/>
-      <c r="CD14" s="102"/>
-      <c r="CE14" s="102"/>
-      <c r="CF14" s="102"/>
-      <c r="CG14" s="102"/>
-      <c r="CH14" s="102"/>
-      <c r="CI14" s="102"/>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>0.25</v>
       </c>
@@ -23966,16 +23893,8 @@
       <c r="U15" s="74">
         <v>-7257</v>
       </c>
-      <c r="CB15" s="102"/>
-      <c r="CC15" s="102"/>
-      <c r="CD15" s="102"/>
-      <c r="CE15" s="102"/>
-      <c r="CF15" s="102"/>
-      <c r="CG15" s="102"/>
-      <c r="CH15" s="102"/>
-      <c r="CI15" s="102"/>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>0.25</v>
       </c>
@@ -24040,7 +23959,7 @@
         <v>-811</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="68">
         <v>0.25</v>
       </c>
@@ -24105,7 +24024,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
         <v>0.25</v>
       </c>
@@ -24170,7 +24089,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>0.25</v>
       </c>
@@ -24235,7 +24154,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -24312,7 +24231,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -24389,7 +24308,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -24466,7 +24385,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -24543,7 +24462,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -24620,7 +24539,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -24697,7 +24616,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -24774,7 +24693,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -24851,33 +24770,11 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G28" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BP1:BU1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BV1:CA1"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AJ1:AO1"/>
     <mergeCell ref="B1:F1"/>
@@ -24888,6 +24785,28 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="X1:AC1"/>
     <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BP1:BU1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="BV1:CA1"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24906,17 +24825,17 @@
       <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="31" width="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" bestFit="1" customWidth="1"/>
@@ -24924,53 +24843,53 @@
     <col min="36" max="36" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="99"/>
     </row>
-    <row r="3" spans="2:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="87"/>
-      <c r="C3" s="81" t="s">
+    <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="95"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -25017,8 +24936,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88"/>
+    <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="95"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
@@ -25034,23 +24953,23 @@
       <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="95"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="101"/>
       <c r="X4" s="35"/>
       <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
@@ -25064,7 +24983,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>0.5</v>
       </c>
@@ -25176,11 +25095,11 @@
         <f>(V5-V13)/V5*100</f>
         <v>176.0482103725347</v>
       </c>
-      <c r="AJ5" s="97" t="s">
+      <c r="AJ5" s="90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>0.5</v>
       </c>
@@ -25292,9 +25211,9 @@
         <f t="shared" si="0"/>
         <v>164.40412033562998</v>
       </c>
-      <c r="AJ6" s="98"/>
+      <c r="AJ6" s="91"/>
     </row>
-    <row r="7" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>0.5</v>
       </c>
@@ -25406,9 +25325,9 @@
         <f t="shared" si="0"/>
         <v>157.60528380852733</v>
       </c>
-      <c r="AJ7" s="98"/>
+      <c r="AJ7" s="91"/>
     </row>
-    <row r="8" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>0.5</v>
       </c>
@@ -25520,9 +25439,9 @@
         <f t="shared" si="0"/>
         <v>155.26349697203969</v>
       </c>
-      <c r="AJ8" s="98"/>
+      <c r="AJ8" s="91"/>
     </row>
-    <row r="9" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>0.5</v>
       </c>
@@ -25634,9 +25553,9 @@
         <f t="shared" si="0"/>
         <v>110.82618189204285</v>
       </c>
-      <c r="AJ9" s="98"/>
+      <c r="AJ9" s="91"/>
     </row>
-    <row r="10" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>0.5</v>
       </c>
@@ -25748,9 +25667,9 @@
         <f t="shared" si="0"/>
         <v>103.22077185017027</v>
       </c>
-      <c r="AJ10" s="98"/>
+      <c r="AJ10" s="91"/>
     </row>
-    <row r="11" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>0.5</v>
       </c>
@@ -25862,9 +25781,9 @@
         <f t="shared" si="0"/>
         <v>99.839890210429999</v>
       </c>
-      <c r="AJ11" s="98"/>
+      <c r="AJ11" s="91"/>
     </row>
-    <row r="12" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>0.5</v>
       </c>
@@ -25976,9 +25895,9 @@
         <f t="shared" si="0"/>
         <v>97.861082462669842</v>
       </c>
-      <c r="AJ12" s="99"/>
+      <c r="AJ12" s="92"/>
     </row>
-    <row r="13" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>0.25</v>
       </c>
@@ -26054,9 +25973,9 @@
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
       <c r="AI13" s="34"/>
-      <c r="AJ13" s="96"/>
+      <c r="AJ13" s="89"/>
     </row>
-    <row r="14" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>0.25</v>
       </c>
@@ -26132,9 +26051,9 @@
       <c r="AG14" s="34"/>
       <c r="AH14" s="34"/>
       <c r="AI14" s="34"/>
-      <c r="AJ14" s="96"/>
+      <c r="AJ14" s="89"/>
     </row>
-    <row r="15" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>0.25</v>
       </c>
@@ -26210,9 +26129,9 @@
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
       <c r="AI15" s="34"/>
-      <c r="AJ15" s="96"/>
+      <c r="AJ15" s="89"/>
     </row>
-    <row r="16" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>0.25</v>
       </c>
@@ -26288,9 +26207,9 @@
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
       <c r="AI16" s="34"/>
-      <c r="AJ16" s="96"/>
+      <c r="AJ16" s="89"/>
     </row>
-    <row r="17" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>0.25</v>
       </c>
@@ -26366,9 +26285,9 @@
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
       <c r="AI17" s="34"/>
-      <c r="AJ17" s="96"/>
+      <c r="AJ17" s="89"/>
     </row>
-    <row r="18" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>0.25</v>
       </c>
@@ -26444,9 +26363,9 @@
       <c r="AG18" s="34"/>
       <c r="AH18" s="34"/>
       <c r="AI18" s="34"/>
-      <c r="AJ18" s="96"/>
+      <c r="AJ18" s="89"/>
     </row>
-    <row r="19" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>0.25</v>
       </c>
@@ -26522,9 +26441,9 @@
       <c r="AG19" s="34"/>
       <c r="AH19" s="34"/>
       <c r="AI19" s="34"/>
-      <c r="AJ19" s="96"/>
+      <c r="AJ19" s="89"/>
     </row>
-    <row r="20" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>0.25</v>
       </c>
@@ -26600,9 +26519,9 @@
       <c r="AG20" s="34"/>
       <c r="AH20" s="34"/>
       <c r="AI20" s="34"/>
-      <c r="AJ20" s="96"/>
+      <c r="AJ20" s="89"/>
     </row>
-    <row r="21" spans="2:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
@@ -26616,42 +26535,42 @@
       <c r="AH21" s="34"/>
       <c r="AI21" s="34"/>
     </row>
-    <row r="22" spans="2:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+    <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92" t="s">
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92" t="s">
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92" t="s">
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92" t="s">
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="92"/>
-      <c r="V22" s="93"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="99"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
@@ -26665,15 +26584,15 @@
       <c r="AH22" s="34"/>
       <c r="AI22" s="34"/>
     </row>
-    <row r="23" spans="2:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="90"/>
-      <c r="C23" s="81" t="s">
+    <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="97"/>
+      <c r="C23" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="95"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -26732,8 +26651,8 @@
       <c r="AH23" s="34"/>
       <c r="AI23" s="34"/>
     </row>
-    <row r="24" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
+    <row r="24" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="98"/>
       <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
@@ -26749,23 +26668,23 @@
       <c r="G24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="95"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="101"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="35"/>
@@ -26779,7 +26698,7 @@
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
     </row>
-    <row r="25" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>0.5</v>
       </c>
@@ -26891,11 +26810,11 @@
         <f t="shared" si="1"/>
         <v>160.54893078409168</v>
       </c>
-      <c r="AJ25" s="97" t="s">
+      <c r="AJ25" s="90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>0.5</v>
       </c>
@@ -27007,9 +26926,9 @@
         <f t="shared" ref="AI26:AI32" si="13">(V26-V34)/V26*100</f>
         <v>150.81033727551468</v>
       </c>
-      <c r="AJ26" s="98"/>
+      <c r="AJ26" s="91"/>
     </row>
-    <row r="27" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>0.5</v>
       </c>
@@ -27121,9 +27040,9 @@
         <f t="shared" si="13"/>
         <v>145.06711611388673</v>
       </c>
-      <c r="AJ27" s="98"/>
+      <c r="AJ27" s="91"/>
     </row>
-    <row r="28" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>0.5</v>
       </c>
@@ -27235,9 +27154,9 @@
         <f t="shared" si="13"/>
         <v>143.08359059605795</v>
       </c>
-      <c r="AJ28" s="98"/>
+      <c r="AJ28" s="91"/>
     </row>
-    <row r="29" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <v>0.5</v>
       </c>
@@ -27349,9 +27268,9 @@
         <f t="shared" si="13"/>
         <v>103.85933187398876</v>
       </c>
-      <c r="AJ29" s="98"/>
+      <c r="AJ29" s="91"/>
     </row>
-    <row r="30" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <v>0.5</v>
       </c>
@@ -27463,9 +27382,9 @@
         <f t="shared" si="13"/>
         <v>97.146799608296988</v>
       </c>
-      <c r="AJ30" s="98"/>
+      <c r="AJ30" s="91"/>
     </row>
-    <row r="31" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>0.5</v>
       </c>
@@ -27577,9 +27496,9 @@
         <f t="shared" si="13"/>
         <v>94.150381778180403</v>
       </c>
-      <c r="AJ31" s="98"/>
+      <c r="AJ31" s="91"/>
     </row>
-    <row r="32" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>0.5</v>
       </c>
@@ -27691,9 +27610,9 @@
         <f t="shared" si="13"/>
         <v>92.388773652796004</v>
       </c>
-      <c r="AJ32" s="99"/>
+      <c r="AJ32" s="92"/>
     </row>
-    <row r="33" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>0.25</v>
       </c>
@@ -27771,7 +27690,7 @@
       <c r="AI33" s="34"/>
       <c r="AJ33" s="36"/>
     </row>
-    <row r="34" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <v>0.25</v>
       </c>
@@ -27849,7 +27768,7 @@
       <c r="AI34" s="34"/>
       <c r="AJ34" s="36"/>
     </row>
-    <row r="35" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <v>0.25</v>
       </c>
@@ -27927,7 +27846,7 @@
       <c r="AI35" s="34"/>
       <c r="AJ35" s="36"/>
     </row>
-    <row r="36" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <v>0.25</v>
       </c>
@@ -28005,7 +27924,7 @@
       <c r="AI36" s="34"/>
       <c r="AJ36" s="36"/>
     </row>
-    <row r="37" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <v>0.25</v>
       </c>
@@ -28083,7 +28002,7 @@
       <c r="AI37" s="34"/>
       <c r="AJ37" s="36"/>
     </row>
-    <row r="38" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <v>0.25</v>
       </c>
@@ -28161,7 +28080,7 @@
       <c r="AI38" s="34"/>
       <c r="AJ38" s="36"/>
     </row>
-    <row r="39" spans="2:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>0.25</v>
       </c>
@@ -28239,7 +28158,7 @@
       <c r="AI39" s="34"/>
       <c r="AJ39" s="36"/>
     </row>
-    <row r="40" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>0.25</v>
       </c>
@@ -28319,11 +28238,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AJ13:AJ20"/>
-    <mergeCell ref="AJ5:AJ12"/>
-    <mergeCell ref="AJ25:AJ32"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:G2"/>
@@ -28340,6 +28254,11 @@
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AJ13:AJ20"/>
+    <mergeCell ref="AJ5:AJ12"/>
+    <mergeCell ref="AJ25:AJ32"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:V20">
     <cfRule type="colorScale" priority="2">
@@ -28374,21 +28293,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0FA687-905C-41AB-A559-CA7C7BA59027}">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="53"/>
+    <col min="4" max="4" width="17.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>55</v>
       </c>
@@ -28402,21 +28321,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="100" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>96</v>
       </c>
@@ -28427,7 +28346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>97</v>
       </c>
@@ -28438,7 +28357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>99</v>
       </c>
@@ -28449,7 +28368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="56" t="s">
         <v>98</v>
       </c>
@@ -28461,21 +28380,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="100" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>72</v>
       </c>
@@ -28489,7 +28408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>73</v>
       </c>
@@ -28503,7 +28422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
         <v>74</v>
       </c>
@@ -28517,7 +28436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>75</v>
       </c>
@@ -28531,7 +28450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>76</v>
       </c>
@@ -28545,7 +28464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
         <v>77</v>
       </c>
@@ -28559,7 +28478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
         <v>83</v>
       </c>
@@ -28573,7 +28492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="56" t="s">
         <v>82</v>
       </c>
@@ -28587,18 +28506,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="100" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>71</v>
       </c>
@@ -28612,7 +28531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
         <v>67</v>
       </c>
@@ -28626,7 +28545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>31</v>
       </c>
@@ -28640,7 +28559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>32</v>
       </c>
@@ -28654,7 +28573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
         <v>38</v>
       </c>
@@ -28668,7 +28587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
         <v>36</v>
       </c>
@@ -28682,7 +28601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
         <v>33</v>
       </c>
@@ -28696,7 +28615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
         <v>37</v>
       </c>
@@ -28710,7 +28629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
         <v>101</v>
       </c>
@@ -28724,7 +28643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="56" t="s">
         <v>64</v>
       </c>
@@ -28738,18 +28657,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="58"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="100" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
         <v>58</v>
       </c>
@@ -28763,7 +28682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
         <v>84</v>
       </c>
@@ -28777,7 +28696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
@@ -28791,7 +28710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="56" t="s">
         <v>35</v>
       </c>
@@ -28805,18 +28724,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="64"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="100" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="53" t="s">
         <v>39</v>
       </c>
@@ -28830,7 +28749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="53" t="s">
         <v>45</v>
       </c>
@@ -28844,7 +28763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
         <v>44</v>
       </c>
@@ -28858,7 +28777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
         <v>43</v>
       </c>
@@ -28872,7 +28791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
         <v>42</v>
       </c>
@@ -28886,7 +28805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
         <v>46</v>
       </c>
@@ -28900,7 +28819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>47</v>
       </c>
@@ -28914,7 +28833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="53" t="s">
         <v>78</v>
       </c>
@@ -28928,7 +28847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="53" t="s">
         <v>48</v>
       </c>
@@ -28942,7 +28861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="53" t="s">
         <v>49</v>
       </c>
@@ -28956,7 +28875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="53" t="s">
         <v>51</v>
       </c>
@@ -28970,7 +28889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
         <v>62</v>
       </c>
@@ -28984,7 +28903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="56" t="s">
         <v>65</v>
       </c>
